--- a/tuning/ISAM_Tuning.xlsx
+++ b/tuning/ISAM_Tuning.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicholasLloyd\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="264" windowWidth="22980" windowHeight="11196"/>
   </bookViews>
   <sheets>
     <sheet name="Tuning" sheetId="1" r:id="rId1"/>
-    <sheet name="Future" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Future" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tuning!$B$1:$H$35</definedName>
     <definedName name="Z_428EE15C_FAD5_428C_9A93_0F1E50589A6D_.wvu.FilterData" localSheetId="0" hidden="1">Tuning!$B$1:$H$35</definedName>
-    <definedName name="Z_6D712CF6_2587_415F_98B4_EE55018961E5_.wvu.FilterData" localSheetId="0" hidden="1">Tuning!$B$1:$H$35</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <customWorkbookViews>
-    <customWorkbookView name="Nicholas Lloyd - Personal View" guid="{6D712CF6-2587-415F-98B4-EE55018961E5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="whannon - Personal View" guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="962" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
@@ -508,7 +501,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -768,15 +761,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{CBD0D1FD-A144-4E04-B955-952A4774BB5E}" diskRevisions="1" revisionId="31" version="16" preserveHistory="9999">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1BB00D59-4F61-4D97-87A0-42C0038CB55B}" diskRevisions="1" revisionId="28" version="13" preserveHistory="9999">
   <header guid="{B2AED240-CB75-45B8-8B56-2AD4B49A6DD4}" dateTime="2017-10-13T19:36:07" maxSheetId="3" userName="whannon" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -850,24 +840,6 @@
     </sheetIdMap>
   </header>
   <header guid="{1BB00D59-4F61-4D97-87A0-42C0038CB55B}" dateTime="2018-02-07T13:08:43" maxSheetId="3" userName="whannon" r:id="rId13" minRId="26" maxRId="27">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{7739E5C8-1393-446E-AE68-1075291E4808}" dateTime="2018-02-08T14:53:36" maxSheetId="3" userName="Nicholas Lloyd" r:id="rId14">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C83BF28D-B1D4-428B-AB37-3ED1A4AA7C07}" dateTime="2018-02-08T14:55:05" maxSheetId="3" userName="Nicholas Lloyd" r:id="rId15">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{CBD0D1FD-A144-4E04-B955-952A4774BB5E}" dateTime="2018-02-08T15:24:26" maxSheetId="3" userName="Nicholas Lloyd" r:id="rId16">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1113,37 +1085,6 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_6D712CF6_2587_415F_98B4_EE55018961E5_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Tuning!$B$1:$H$35</formula>
-  </rdn>
-  <rcv guid="{6D712CF6-2587-415F-98B4-EE55018961E5}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{6D712CF6-2587-415F-98B4-EE55018961E5}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_6D712CF6_2587_415F_98B4_EE55018961E5_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Tuning!$B$1:$H$35</formula>
-    <oldFormula>Tuning!$B$1:$H$35</oldFormula>
-  </rdn>
-  <rcv guid="{6D712CF6-2587-415F-98B4-EE55018961E5}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{6D712CF6-2587-415F-98B4-EE55018961E5}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_6D712CF6_2587_415F_98B4_EE55018961E5_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Tuning!$B$1:$H$35</formula>
-    <oldFormula>Tuning!$B$1:$H$35</oldFormula>
-  </rdn>
-  <rcv guid="{6D712CF6-2587-415F-98B4-EE55018961E5}" action="add"/>
-</revisions>
-</file>
-
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="1" sId="1">
@@ -1332,7 +1273,7 @@
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
   <userInfo guid="{5EBCED96-2F81-4BB0-83BF-42F752F070A1}" name="whannon" id="-336981808" dateTime="2017-10-13T19:36:07"/>
   <userInfo guid="{0FD5F71C-7ADA-4302-BC35-378762EAA384}" name="whannon" id="-336930999" dateTime="2017-11-08T12:53:42"/>
-  <userInfo guid="{1BB00D59-4F61-4D97-87A0-42C0038CB55B}" name="whannon" id="-336920943" dateTime="2018-02-07T13:06:35"/>
+  <userInfo guid="{1BB00D59-4F61-4D97-87A0-42C0038CB55B}" name="whannon" id="-336954853" dateTime="2018-02-08T14:52:55"/>
 </users>
 </file>
 
@@ -1379,7 +1320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1412,26 +1353,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1464,23 +1388,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1661,8 +1568,8 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -2223,23 +2130,16 @@
   </sheetData>
   <autoFilter ref="B1:H35"/>
   <customSheetViews>
-    <customSheetView guid="{6D712CF6-2587-415F-98B4-EE55018961E5}" showPageBreaks="1" showAutoFilter="1">
-      <pane xSplit="4" ySplit="1" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="landscape" r:id="rId1"/>
-      <autoFilter ref="B1:H35"/>
-    </customSheetView>
     <customSheetView guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" showAutoFilter="1">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
       <autoFilter ref="B1:H35"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2346,10 +2246,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6D712CF6-2587-415F-98B4-EE55018961E5}" state="hidden">
-      <selection activeCell="D8" sqref="D8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}">
       <selection activeCell="D8" sqref="D8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tuning/ISAM_Tuning.xlsx
+++ b/tuning/ISAM_Tuning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="324" windowWidth="22980" windowHeight="11136"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="22980" windowHeight="11076"/>
   </bookViews>
   <sheets>
     <sheet name="Tuning" sheetId="1" r:id="rId1"/>
@@ -12,18 +12,18 @@
     <sheet name="For Later Available Version" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tuning!$B$1:$H$35</definedName>
-    <definedName name="Z_428EE15C_FAD5_428C_9A93_0F1E50589A6D_.wvu.FilterData" localSheetId="0" hidden="1">Tuning!$B$1:$H$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tuning!$B$1:$H$40</definedName>
+    <definedName name="Z_428EE15C_FAD5_428C_9A93_0F1E50589A6D_.wvu.FilterData" localSheetId="0" hidden="1">Tuning!$B$1:$H$40</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
-    <customWorkbookView name="whannon - Personal View" guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="962" activeSheetId="3"/>
+    <customWorkbookView name="whannon - Personal View" guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="962" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="98">
   <si>
     <t>Area</t>
   </si>
@@ -500,6 +500,68 @@
   </si>
   <si>
     <t>All instances</t>
+  </si>
+  <si>
+    <t>Latency
+Problem</t>
+  </si>
+  <si>
+    <t>Poor TCP performance might occur in Linux virtual machines with LRO enabled (1027511)
+modprobe -r vmxnet3
+/etc/modprobe.conf vmxnet3 disable_lro=1
+modprobe vmxnet3</t>
+  </si>
+  <si>
+    <t>Best Practices for Performance Tuning of Latency-Sensitive
+BIOS Power Management settings
+InterruptThrottleRate
+ethernetX.coalescingScheme
+Do not overcommit vCPUs as compared to pCPUs
+Sufficient VMWare vmkernel scheduler CPU resources
+Do not overcommit VMWare physical memory</t>
+  </si>
+  <si>
+    <t>Non-Appliance
+Latency
+Problem</t>
+  </si>
+  <si>
+    <t>https://github.com/IBM-Security/isam-support/raw/master/tuning/ISAM_Tuning.xlsx</t>
+  </si>
+  <si>
+    <t>WebSEAL Backend Loadbalancer</t>
+  </si>
+  <si>
+    <t>SSL</t>
+  </si>
+  <si>
+    <t>If a Loadbalancer is used on a WebSEAL Backend SSL type junction
+  and
+not terminated
+Each new socket connection may be forced to do Full SSL Handshakes</t>
+  </si>
+  <si>
+    <t>Load and/or
+Performance</t>
+  </si>
+  <si>
+    <t>Monitor and ensure sufficient
+    [session]             max-entries = 4096 (default)
+    [session] unauth-max-entries = 4096 (default)
+Insufficient number of entries may cause performance delays</t>
+  </si>
+  <si>
+    <t>DSC</t>
+  </si>
+  <si>
+    <t>117462</t>
+  </si>
+  <si>
+    <t>Monitor and ensure sufficient
+    [dsess-server] worker-threads = 64 (default)
+DSC worker threads needs to be large enough to handle the number of concurrent login requests per second from ALL WebSEALs
+Otherwise performance delays may appear in pdweb.snoop/pdweb.debug
+  between receiving a response from WebSEAL backend webserver and sending the response to the WebSEAL frontend client</t>
   </si>
 </sst>
 </file>
@@ -681,7 +743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -747,6 +809,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -771,7 +834,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{6F63565C-B1F1-4DB4-B8A0-1CAE6D5879B0}" diskRevisions="1" revisionId="33" version="15" preserveHistory="9999">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{23EDF4DE-73C5-4F3A-BB52-13D6F0D47A8B}" diskRevisions="1" revisionId="91" version="41" preserveHistory="9999">
   <header guid="{B2AED240-CB75-45B8-8B56-2AD4B49A6DD4}" dateTime="2017-10-13T19:36:07" maxSheetId="3" userName="whannon" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -858,6 +921,188 @@
     </sheetIdMap>
   </header>
   <header guid="{6F63565C-B1F1-4DB4-B8A0-1CAE6D5879B0}" dateTime="2018-02-08T16:00:26" maxSheetId="4" userName="whannon" r:id="rId15" minRId="33">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{57DD0BF0-F809-4CCA-95E2-6898A62998A0}" dateTime="2018-02-09T16:04:10" maxSheetId="4" userName="whannon" r:id="rId16" minRId="34">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9AE413E7-4820-4A67-95D2-81FA9633AFC5}" dateTime="2018-02-09T16:37:32" maxSheetId="4" userName="whannon" r:id="rId17" minRId="35">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{296CD690-C044-4C84-8D5D-78FAE3E147A7}" dateTime="2018-02-10T15:30:54" maxSheetId="4" userName="whannon" r:id="rId18" minRId="36" maxRId="40">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{17EACA55-E0D8-4F64-90E8-DE1F6474FC63}" dateTime="2018-02-10T15:31:53" maxSheetId="4" userName="whannon" r:id="rId19" minRId="41" maxRId="45">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C47A762E-0146-444A-875E-D19FCDCEB898}" dateTime="2018-02-10T15:32:36" maxSheetId="4" userName="whannon" r:id="rId20" minRId="46">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{64A7C1EF-AEA6-41B6-B83E-AD6207E89F1C}" dateTime="2018-02-10T15:52:55" maxSheetId="4" userName="whannon" r:id="rId21" minRId="47">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{30DD0D1B-C226-45B6-856C-70D8C70370E7}" dateTime="2018-02-10T16:25:16" maxSheetId="4" userName="whannon" r:id="rId22" minRId="48">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C6D80EDA-A1DD-4F2A-B318-48AAF85E2568}" dateTime="2018-02-10T16:32:59" maxSheetId="4" userName="whannon" r:id="rId23" minRId="49" maxRId="50">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0DFDF5A2-F61E-4949-9949-E227706DA5E6}" dateTime="2018-02-10T16:33:41" maxSheetId="4" userName="whannon" r:id="rId24" minRId="51">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A0B3702D-8129-49C3-A8BF-BD4022E0D9BC}" dateTime="2018-02-10T16:34:16" maxSheetId="4" userName="whannon" r:id="rId25" minRId="52">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2C8135B5-B9A6-4E1D-BF3D-DA06EF884F97}" dateTime="2018-02-10T16:37:31" maxSheetId="4" userName="whannon" r:id="rId26" minRId="53">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E5A93A34-7152-41EA-854E-F9EC92B3AC48}" dateTime="2018-02-10T16:41:14" maxSheetId="4" userName="whannon" r:id="rId27" minRId="54">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{59AD63D1-DE07-4C77-8C35-D9B188D9F7FD}" dateTime="2018-02-10T16:41:52" maxSheetId="4" userName="whannon" r:id="rId28" minRId="55">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{609805FC-3161-40BF-8748-B82FAE40C499}" dateTime="2018-02-10T16:44:34" maxSheetId="4" userName="whannon" r:id="rId29" minRId="56" maxRId="57">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{082894A9-2542-4735-876D-BF53CB7DEBD0}" dateTime="2018-02-10T17:47:18" maxSheetId="4" userName="whannon" r:id="rId30" minRId="58">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9886BC46-72B3-47D2-8EDF-C89221C90DD1}" dateTime="2018-02-10T17:53:14" maxSheetId="4" userName="whannon" r:id="rId31" minRId="59">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B14E97BB-6730-456D-B1F3-A4D357F083EE}" dateTime="2018-02-10T17:56:28" maxSheetId="4" userName="whannon" r:id="rId32" minRId="60">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B475A6DC-E667-4926-956E-3C7787D76B24}" dateTime="2018-02-13T21:15:10" maxSheetId="4" userName="whannon" r:id="rId33" minRId="61">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F2593D58-E944-454A-BA51-EB650B750CE9}" dateTime="2018-02-14T13:01:03" maxSheetId="4" userName="whannon" r:id="rId34" minRId="62">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{ED18A011-2462-4818-B10E-7E3D3E802085}" dateTime="2018-02-14T13:01:13" maxSheetId="4" userName="whannon" r:id="rId35" minRId="63">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6D46EBA7-A7C8-45FC-B937-4F6C2A034D50}" dateTime="2018-02-14T13:01:46" maxSheetId="4" userName="whannon" r:id="rId36" minRId="64">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{ADF04741-1686-4BE7-9728-B57B08F93CC4}" dateTime="2018-02-14T16:35:43" maxSheetId="4" userName="whannon" r:id="rId37" minRId="65">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{901FB960-D225-4C37-B3FA-A421E54850F5}" dateTime="2018-04-10T12:58:19" maxSheetId="4" userName="whannon" r:id="rId38" minRId="67" maxRId="74">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D4DCD763-D212-4B85-B449-4219866159FC}" dateTime="2018-04-10T12:58:33" maxSheetId="4" userName="whannon" r:id="rId39" minRId="76">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6C250ABD-BBC9-4CC9-91A4-815FE4CE0B7C}" dateTime="2018-04-10T15:54:07" maxSheetId="4" userName="whannon" r:id="rId40" minRId="77" maxRId="89">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{23EDF4DE-73C5-4F3A-BB52-13D6F0D47A8B}" dateTime="2018-04-10T15:59:59" maxSheetId="4" userName="whannon" r:id="rId41" minRId="91">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1153,6 +1398,121 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="34" sId="1" odxf="1" dxf="1">
+    <nc r="G2">
+      <f>HYPERLINK("https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.4/com.ibm.isam.doc/admin/task/tsk_install_virtual_appl_vm.html", "https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.4/com.ibm.isam.doc/admin/task/tsk_install_virtual_appl_vm.html")</f>
+    </nc>
+    <odxf>
+      <font>
+        <u val="none"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <color theme="10"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="35" sId="1" odxf="1" dxf="1">
+    <nc r="G3">
+      <f>HYPERLINK("https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.4/com.ibm.isam.doc/admin/task/tsk_install_virtual_appl_rhev.html", "https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.4/com.ibm.isam.doc/admin/task/tsk_install_virtual_appl_rhev.html")</f>
+    </nc>
+    <odxf>
+      <font>
+        <u val="none"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <color theme="10"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="36" sId="1" ref="A3:XFD3" action="insertRow"/>
+  <rcc rId="37" sId="1">
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>Network</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="38" sId="1">
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>VMWare</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="39" sId="1">
+    <nc r="G3">
+      <f>HYPERLINK("https://kb.vmware.com/s/article/1027511","https://kb.vmware.com/s/article/1027511")</f>
+    </nc>
+  </rcc>
+  <rcc rId="40" sId="1">
+    <nc r="E3" t="inlineStr">
+      <is>
+        <t>Poor TCP performance might occur in Linux virtual machines with LRO enabled (1027511)</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="41" sId="1" ref="A4:XFD4" action="insertRow"/>
+  <rcc rId="42" sId="1">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>Network</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="43" sId="1">
+    <nc r="C4" t="inlineStr">
+      <is>
+        <t>VMWare</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="44" sId="1">
+    <nc r="D4" t="inlineStr">
+      <is>
+        <t>Latency
+Problem</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="45" sId="1">
+    <nc r="G4">
+      <f>HYPERLINK("https://www.vmware.com/content/dam/digitalmarketing/vmware/en/pdf/techpaper/vmw-tuning-latency-sensitive-workloads-white-paper.pdf", "https://www.vmware.com/content/dam/digitalmarketing/vmware/en/pdf/techpaper/vmw-tuning-latency-sensitive-workloads-white-paper.pdf")</f>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="1" sId="1">
@@ -1177,6 +1537,250 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="46" sId="1">
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Best Practices for Performance Tuning of Latency-Sensitive </t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="47" sId="1">
+    <oc r="E4" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Best Practices for Performance Tuning of Latency-Sensitive </t>
+      </is>
+    </oc>
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t>Best Practices for Performance Tuning of Latency-Sensitive 
+BIOS Power Management settings</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="48" sId="1">
+    <oc r="E4" t="inlineStr">
+      <is>
+        <t>Best Practices for Performance Tuning of Latency-Sensitive 
+BIOS Power Management settings</t>
+      </is>
+    </oc>
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t>Best Practices for Performance Tuning of Latency-Sensitive 
+BIOS Power Management settings
+InterruptThrottleRate=0</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="49" sId="1">
+    <oc r="E4" t="inlineStr">
+      <is>
+        <t>Best Practices for Performance Tuning of Latency-Sensitive 
+BIOS Power Management settings
+InterruptThrottleRate=0</t>
+      </is>
+    </oc>
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t>Best Practices for Performance Tuning of Latency-Sensitive
+BIOS Power Management settings
+InterruptThrottleRate=0
+ethernetX.coalescingScheme = disabled</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="50" sId="1">
+    <oc r="E3" t="inlineStr">
+      <is>
+        <t>Poor TCP performance might occur in Linux virtual machines with LRO enabled (1027511)</t>
+      </is>
+    </oc>
+    <nc r="E3" t="inlineStr">
+      <is>
+        <t>Poor TCP performance might occur in Linux virtual machines with LRO enabled (1027511)
+modprobe -r vmxnet3
+/etc/modprobe.conf vmxnet3 disable_lro=1
+modprobe vmxnet3</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="51" sId="1">
+    <oc r="G3">
+      <f>HYPERLINK("https://kb.vmware.com/s/article/1027511","https://kb.vmware.com/s/article/1027511")</f>
+    </oc>
+    <nc r="G3">
+      <f>HYPERLINK("https://kb.vmware.com/s/article/1027511","https://kb.vmware.com/s/article/1027511")</f>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog25.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="52" sId="1">
+    <oc r="E4" t="inlineStr">
+      <is>
+        <t>Best Practices for Performance Tuning of Latency-Sensitive
+BIOS Power Management settings
+InterruptThrottleRate=0
+ethernetX.coalescingScheme = disabled</t>
+      </is>
+    </oc>
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t>Best Practices for Performance Tuning of Latency-Sensitive
+BIOS Power Management settings
+InterruptThrottleRate
+ethernetX.coalescingScheme</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog26.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="53" sId="1">
+    <oc r="E4" t="inlineStr">
+      <is>
+        <t>Best Practices for Performance Tuning of Latency-Sensitive
+BIOS Power Management settings
+InterruptThrottleRate
+ethernetX.coalescingScheme</t>
+      </is>
+    </oc>
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t>Best Practices for Performance Tuning of Latency-Sensitive
+BIOS Power Management settings
+InterruptThrottleRate
+ethernetX.coalescingScheme
+Do not overcommit vCPUs as compared to pCPUs</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog27.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="54" sId="1">
+    <oc r="E4" t="inlineStr">
+      <is>
+        <t>Best Practices for Performance Tuning of Latency-Sensitive
+BIOS Power Management settings
+InterruptThrottleRate
+ethernetX.coalescingScheme
+Do not overcommit vCPUs as compared to pCPUs</t>
+      </is>
+    </oc>
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t>Best Practices for Performance Tuning of Latency-Sensitive
+Sufficient VMWare 
+BIOS Power Management settings
+InterruptThrottleRate
+ethernetX.coalescingScheme
+Do not overcommit vCPUs as compared to pCPUs
+Sufficient VMWare vmkernel scheduler CPU resources</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog28.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="55" sId="1">
+    <oc r="E4" t="inlineStr">
+      <is>
+        <t>Best Practices for Performance Tuning of Latency-Sensitive
+Sufficient VMWare 
+BIOS Power Management settings
+InterruptThrottleRate
+ethernetX.coalescingScheme
+Do not overcommit vCPUs as compared to pCPUs
+Sufficient VMWare vmkernel scheduler CPU resources</t>
+      </is>
+    </oc>
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t>Best Practices for Performance Tuning of Latency-Sensitive
+Sufficient VMWare 
+BIOS Power Management settings
+InterruptThrottleRate
+ethernetX.coalescingScheme
+Do not overcommit vCPUs as compared to pCPUs
+Do not overcommit VMWare physical memory
+Sufficient VMWare vmkernel scheduler CPU resources</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog29.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="56" sId="1">
+    <oc r="E4" t="inlineStr">
+      <is>
+        <t>Best Practices for Performance Tuning of Latency-Sensitive
+Sufficient VMWare 
+BIOS Power Management settings
+InterruptThrottleRate
+ethernetX.coalescingScheme
+Do not overcommit vCPUs as compared to pCPUs
+Do not overcommit VMWare physical memory
+Sufficient VMWare vmkernel scheduler CPU resources</t>
+      </is>
+    </oc>
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Best Practices for Performance Tuning of Latency-Sensitive
+Sufficient VMWare 
+BIOS Power Management settings
+InterruptThrottleRate
+ethernetX.coalescingScheme
+Do not overcommit vCPUs as compared to pCPUs
+Sufficient VMWare vmkernel scheduler CPU resources
+Do not overcommit VMWare physical memory
+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="57" sId="1">
+    <nc r="D3" t="inlineStr">
+      <is>
+        <t>Latency
+Problem</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" action="delete"/>
@@ -1188,6 +1792,379 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog30.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="58" sId="1">
+    <oc r="E4" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Best Practices for Performance Tuning of Latency-Sensitive
+Sufficient VMWare 
+BIOS Power Management settings
+InterruptThrottleRate
+ethernetX.coalescingScheme
+Do not overcommit vCPUs as compared to pCPUs
+Sufficient VMWare vmkernel scheduler CPU resources
+Do not overcommit VMWare physical memory
+</t>
+      </is>
+    </oc>
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Best Practices for Performance Tuning of Latency-Sensitive
+Sufficient VMWare 
+BIOS Power Management settings
+NIC Interrupt Moderation esxcli InterruptThrottleRate
+Disable Interrupt Coalescing configuration ethernetX.coalescingScheme
+Do not overcommit vCPUs as compared to pCPUs
+Sufficient VMWare vmkernel scheduler CPU resources
+Do not overcommit VMWare physical memory
+</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog31.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="59" sId="1">
+    <oc r="E4" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Best Practices for Performance Tuning of Latency-Sensitive
+Sufficient VMWare 
+BIOS Power Management settings
+NIC Interrupt Moderation esxcli InterruptThrottleRate
+Disable Interrupt Coalescing configuration ethernetX.coalescingScheme
+Do not overcommit vCPUs as compared to pCPUs
+Sufficient VMWare vmkernel scheduler CPU resources
+Do not overcommit VMWare physical memory
+</t>
+      </is>
+    </oc>
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Best Practices for Performance Tuning of Latency-Sensitive
+BIOS Power Management settings
+InterruptThrottleRate
+ethernetX.coalescingScheme
+Do not overcommit vCPUs as compared to pCPUs
+Sufficient VMWare vmkernel scheduler CPU resources
+Do not overcommit VMWare physical memory
+</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog32.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="60" sId="1" numFmtId="19">
+    <oc r="A1">
+      <v>43139</v>
+    </oc>
+    <nc r="A1">
+      <v>43141</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog33.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="61" sId="1">
+    <oc r="E4" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Best Practices for Performance Tuning of Latency-Sensitive
+BIOS Power Management settings
+InterruptThrottleRate
+ethernetX.coalescingScheme
+Do not overcommit vCPUs as compared to pCPUs
+Sufficient VMWare vmkernel scheduler CPU resources
+Do not overcommit VMWare physical memory
+</t>
+      </is>
+    </oc>
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t>Best Practices for Performance Tuning of Latency-Sensitive
+BIOS Power Management settings
+InterruptThrottleRate
+ethernetX.coalescingScheme
+Do not overcommit vCPUs as compared to pCPUs
+Sufficient VMWare vmkernel scheduler CPU resources
+Do not overcommit VMWare physical memory</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog34.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="62" sId="1">
+    <oc r="D3" t="inlineStr">
+      <is>
+        <t>Latency
+Problem</t>
+      </is>
+    </oc>
+    <nc r="D3" t="inlineStr">
+      <is>
+        <t>Non-Appliance
+Latency
+Problem</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog35.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="63" sId="1">
+    <oc r="D3" t="inlineStr">
+      <is>
+        <t>Non-Appliance
+Latency
+Problem</t>
+      </is>
+    </oc>
+    <nc r="D3" t="inlineStr">
+      <is>
+        <t>Non-Appliance
+Latency
+Problem</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog36.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="64" sId="1" numFmtId="19">
+    <oc r="A1">
+      <v>43141</v>
+    </oc>
+    <nc r="A1">
+      <v>43145</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog37.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="65" sId="3" odxf="1" quotePrefix="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>https://github.com/IBM-Security/isam-support/raw/master/tuning/ISAM_Tuning.xlsx</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_428EE15C_FAD5_428C_9A93_0F1E50589A6D_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Tuning!$B$1:$H$37</formula>
+    <oldFormula>Tuning!$B$1:$H$37</oldFormula>
+  </rdn>
+  <rcv guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog38.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="67" sId="1" ref="A8:XFD8" action="insertRow"/>
+  <rcc rId="68" sId="1">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t xml:space="preserve">TCP </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="69" sId="1">
+    <nc r="C8" t="inlineStr">
+      <is>
+        <t>WebSEAL Backend Loadbalancer</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="70" sId="1" ref="A11:XFD11" action="insertRow"/>
+  <rm rId="71" sheetId="1" source="A8:XFD8" destination="A11:XFD11" sourceSheetId="1">
+    <rfmt sheetId="1" xfDxf="1" sqref="A11:XFD11" start="0" length="0">
+      <dxf>
+        <font>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color theme="0" tint="-0.14996795556505021"/>
+          </left>
+          <right style="thin">
+            <color theme="0" tint="-0.14996795556505021"/>
+          </right>
+          <top style="thin">
+            <color theme="0" tint="-0.14996795556505021"/>
+          </top>
+          <bottom style="thin">
+            <color theme="0" tint="-0.14996795556505021"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="A11" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left/>
+          <right/>
+          <top/>
+          <bottom/>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="B11" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left/>
+          <right/>
+          <top/>
+          <bottom/>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="C11" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <top/>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="D11" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left/>
+          <right/>
+          <top/>
+          <bottom/>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="E11" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left/>
+          <right/>
+          <top/>
+          <bottom/>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="F11" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left/>
+          <right/>
+          <top/>
+          <bottom/>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="G11" start="0" length="0">
+      <dxf>
+        <font>
+          <u/>
+          <color theme="10"/>
+          <name val="Arial"/>
+          <scheme val="minor"/>
+        </font>
+        <border outline="0">
+          <left/>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="H11" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+        <border outline="0">
+          <left/>
+          <right/>
+          <top/>
+          <bottom/>
+        </border>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rrc rId="72" sId="1" ref="A8:XFD8" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A8:XFD8" start="0" length="0">
+      <dxf>
+        <font>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color theme="0" tint="-0.14996795556505021"/>
+          </left>
+          <right style="thin">
+            <color theme="0" tint="-0.14996795556505021"/>
+          </right>
+          <top style="thin">
+            <color theme="0" tint="-0.14996795556505021"/>
+          </top>
+          <bottom style="thin">
+            <color theme="0" tint="-0.14996795556505021"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="H8" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rcc rId="73" sId="1">
+    <nc r="D10" t="inlineStr">
+      <is>
+        <t>SSL</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="74" sId="1">
+    <nc r="E10" t="inlineStr">
+      <is>
+        <t>If a Loadbalancer is used on a WebSEAL Backend SSL type junction
+  and
+not terminated
+Each new socket connection may be forced to do Full SSL Handshakes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_428EE15C_FAD5_428C_9A93_0F1E50589A6D_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Tuning!$B$1:$H$38</formula>
+    <oldFormula>Tuning!$B$1:$H$38</oldFormula>
+  </rdn>
+  <rcv guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog39.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="76" sId="1" numFmtId="19">
+    <oc r="A1">
+      <v>43145</v>
+    </oc>
+    <nc r="A1">
+      <v>43200</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" action="delete"/>
@@ -1196,6 +2173,246 @@
     <oldFormula>Tuning!$A$1:$G$32</oldFormula>
   </rdn>
   <rcv guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog40.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="77" sId="1" ref="A11:XFD11" action="insertRow"/>
+  <rm rId="78" sheetId="1" source="A16:XFD16" destination="A11:XFD11" sourceSheetId="1">
+    <rfmt sheetId="1" xfDxf="1" sqref="A11:XFD11" start="0" length="0">
+      <dxf>
+        <font>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color theme="0" tint="-0.14996795556505021"/>
+          </left>
+          <right style="thin">
+            <color theme="0" tint="-0.14996795556505021"/>
+          </right>
+          <top style="thin">
+            <color theme="0" tint="-0.14996795556505021"/>
+          </top>
+          <bottom style="thin">
+            <color theme="0" tint="-0.14996795556505021"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="A11" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left/>
+          <right/>
+          <top/>
+          <bottom/>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="B11" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left/>
+          <right/>
+          <top/>
+          <bottom/>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="C11" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <top/>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="D11" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left/>
+          <right/>
+          <top/>
+          <bottom/>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="E11" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left/>
+          <right/>
+          <top/>
+          <bottom/>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="F11" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left/>
+          <right/>
+          <top/>
+          <bottom/>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="G11" start="0" length="0">
+      <dxf>
+        <font>
+          <u/>
+          <color theme="10"/>
+          <name val="Arial"/>
+          <scheme val="minor"/>
+        </font>
+        <border outline="0">
+          <left/>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="H11" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+        <border outline="0">
+          <left/>
+          <right/>
+          <top/>
+          <bottom/>
+        </border>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rrc rId="79" sId="1" ref="A16:XFD16" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A16:XFD16" start="0" length="0">
+      <dxf>
+        <font>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <alignment wrapText="1" readingOrder="0"/>
+        <border outline="0">
+          <left style="thin">
+            <color theme="0" tint="-0.14996795556505021"/>
+          </left>
+          <right style="thin">
+            <color theme="0" tint="-0.14996795556505021"/>
+          </right>
+          <top style="thin">
+            <color theme="0" tint="-0.14996795556505021"/>
+          </top>
+          <bottom style="thin">
+            <color theme="0" tint="-0.14996795556505021"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="H16" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rrc rId="80" sId="1" ref="A12:XFD12" action="insertRow"/>
+  <rcc rId="81" sId="1">
+    <nc r="B12" t="inlineStr">
+      <is>
+        <t>WebSEAL</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="82" sId="1">
+    <nc r="C12" t="inlineStr">
+      <is>
+        <t>Load and/or
+Performance</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="83" sId="1">
+    <nc r="E12" t="inlineStr">
+      <is>
+        <t>Monitor and ensure sufficient
+    [session]             max-entries = 4096 (default)
+    [session] unauth-max-entries = 4096 (default)
+Insufficient number of entries may cause performance delays</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="84" sId="1" ref="A13:XFD13" action="insertRow"/>
+  <rcc rId="85" sId="1">
+    <nc r="B13" t="inlineStr">
+      <is>
+        <t>DSC</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="86" sId="1">
+    <nc r="C13" t="inlineStr">
+      <is>
+        <t>Load and/or
+Performance</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="87" sId="1">
+    <nc r="H12" t="inlineStr">
+      <is>
+        <t>117462</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="88" sId="1">
+    <nc r="H13" t="inlineStr">
+      <is>
+        <t>117462</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="89" sId="1">
+    <nc r="E13" t="inlineStr">
+      <is>
+        <t>Monitor and ensure sufficient
+    [dsess-server] worker-threads = 64 (default)
+DSC worker threads needs to be large enough to handle the number of concurrent login requests per second from ALL WebSEALs
+Performance delays may appear in pdweb.snoop/pdweb.debug
+  between receiving a response from WebSEAL backend webserver and sending the response to the WebSEAL frontend client</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_428EE15C_FAD5_428C_9A93_0F1E50589A6D_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Tuning!$B$1:$H$40</formula>
+    <oldFormula>Tuning!$B$1:$H$40</oldFormula>
+  </rdn>
+  <rcv guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog41.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="91" sId="1">
+    <oc r="E13" t="inlineStr">
+      <is>
+        <t>Monitor and ensure sufficient
+    [dsess-server] worker-threads = 64 (default)
+DSC worker threads needs to be large enough to handle the number of concurrent login requests per second from ALL WebSEALs
+Performance delays may appear in pdweb.snoop/pdweb.debug
+  between receiving a response from WebSEAL backend webserver and sending the response to the WebSEAL frontend client</t>
+      </is>
+    </oc>
+    <nc r="E13" t="inlineStr">
+      <is>
+        <t>Monitor and ensure sufficient
+    [dsess-server] worker-threads = 64 (default)
+DSC worker threads needs to be large enough to handle the number of concurrent login requests per second from ALL WebSEALs
+Otherwise performance delays may appear in pdweb.snoop/pdweb.debug
+  between receiving a response from WebSEAL backend webserver and sending the response to the WebSEAL frontend client</t>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -1338,10 +2555,13 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="6">
   <userInfo guid="{5EBCED96-2F81-4BB0-83BF-42F752F070A1}" name="whannon" id="-336981808" dateTime="2017-10-13T19:36:07"/>
   <userInfo guid="{0FD5F71C-7ADA-4302-BC35-378762EAA384}" name="whannon" id="-336930999" dateTime="2017-11-08T12:53:42"/>
-  <userInfo guid="{6F63565C-B1F1-4DB4-B8A0-1CAE6D5879B0}" name="whannon" id="-336954853" dateTime="2018-02-08T14:52:55"/>
+  <userInfo guid="{9AE413E7-4820-4A67-95D2-81FA9633AFC5}" name="whannon" id="-336954853" dateTime="2018-02-08T14:52:55"/>
+  <userInfo guid="{B14E97BB-6730-456D-B1F3-A4D357F083EE}" name="whannon" id="-336972192" dateTime="2018-02-12T21:34:12"/>
+  <userInfo guid="{ADF04741-1686-4BE7-9728-B57B08F93CC4}" name="whannon" id="-336940639" dateTime="2018-02-28T10:47:28"/>
+  <userInfo guid="{23EDF4DE-73C5-4F3A-BB52-13D6F0D47A8B}" name="whannon" id="-336947481" dateTime="2018-04-10T11:55:47"/>
 </users>
 </file>
 
@@ -1633,13 +2853,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1657,7 +2877,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21">
-        <v>43139</v>
+        <v>43200</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1681,7 +2901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
         <v>30</v>
@@ -1692,521 +2912,617 @@
       <c r="E2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="13" t="str">
+        <f>HYPERLINK("https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.4/com.ibm.isam.doc/admin/task/tsk_install_virtual_appl_vm.html", "https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.4/com.ibm.isam.doc/admin/task/tsk_install_virtual_appl_vm.html")</f>
+        <v>https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.4/com.ibm.isam.doc/admin/task/tsk_install_virtual_appl_vm.html</v>
+      </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="E3" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="G3" s="13" t="str">
+        <f>HYPERLINK("https://kb.vmware.com/s/article/1027511","https://kb.vmware.com/s/article/1027511")</f>
+        <v>https://kb.vmware.com/s/article/1027511</v>
+      </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="111" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="E4" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="G4" s="13" t="str">
-        <f>HYPERLINK("https://www-01.ibm.com/support/docview.wss?uid=swg21960611", "https://www-01.ibm.com/support/docview.wss?uid=swg21960611")</f>
-        <v>https://www-01.ibm.com/support/docview.wss?uid=swg21960611</v>
+        <f>HYPERLINK("https://www.vmware.com/content/dam/digitalmarketing/vmware/en/pdf/techpaper/vmw-tuning-latency-sensitive-workloads-white-paper.pdf", "https://www.vmware.com/content/dam/digitalmarketing/vmware/en/pdf/techpaper/vmw-tuning-latency-sensitive-workloads-white-paper.pdf")</f>
+        <v>https://www.vmware.com/content/dam/digitalmarketing/vmware/en/pdf/techpaper/vmw-tuning-latency-sensitive-workloads-white-paper.pdf</v>
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="13"/>
+        <v>82</v>
+      </c>
+      <c r="G5" s="13" t="str">
+        <f>HYPERLINK("https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.4/com.ibm.isam.doc/admin/task/tsk_install_virtual_appl_rhev.html", "https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.4/com.ibm.isam.doc/admin/task/tsk_install_virtual_appl_rhev.html")</f>
+        <v>https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.4/com.ibm.isam.doc/admin/task/tsk_install_virtual_appl_rhev.html</v>
+      </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="83.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="C6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="13" t="str">
+        <f>HYPERLINK("https://www-01.ibm.com/support/docview.wss?uid=swg21960611", "https://www-01.ibm.com/support/docview.wss?uid=swg21960611")</f>
+        <v>https://www-01.ibm.com/support/docview.wss?uid=swg21960611</v>
+      </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="13"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" ht="165.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:8" ht="83.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="165.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    <row r="16" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+    <row r="17" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+    <row r="18" spans="2:8" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E18" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="83.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+    <row r="19" spans="2:8" ht="83.4" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="14" t="str">
+      <c r="G19" s="14" t="str">
         <f>HYPERLINK("http://www.ibm.com/support/knowledgecenter/SSAW57_8.5.5/com.ibm.websphere.nd.doc/ae/udat_conpoolset.html", "http://www.ibm.com/support/knowledgecenter/SSAW57_8.5.5/com.ibm.websphere.nd.doc/ae/udat_conpoolset.html")</f>
         <v>http://www.ibm.com/support/knowledgecenter/SSAW57_8.5.5/com.ibm.websphere.nd.doc/ae/udat_conpoolset.html</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="83.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+    <row r="20" spans="2:8" ht="83.4" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="14" t="str">
+      <c r="G20" s="14" t="str">
         <f>HYPERLINK("http://www.ibm.com/support/knowledgecenter/SSAW57_8.5.5/com.ibm.websphere.nd.doc/ae/udat_conpoolset.html", "http://www.ibm.com/support/knowledgecenter/SSAW57_8.5.5/com.ibm.websphere.nd.doc/ae/udat_conpoolset.html")</f>
         <v>http://www.ibm.com/support/knowledgecenter/SSAW57_8.5.5/com.ibm.websphere.nd.doc/ae/udat_conpoolset.html</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="83.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+    <row r="21" spans="2:8" ht="83.4" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E21" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="2:8" ht="83.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="2:8" ht="83.4" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E22" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+    <row r="24" spans="2:8" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="12" t="str">
+      <c r="G24" s="12" t="str">
         <f>HYPERLINK("https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.0/com.ibm.isam.doc_9.0/wrp_config/task/tsk_config_nonsticky_failover_soln.html", "https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.0/com.ibm.isam.doc_9.0/wrp_config/task/tsk_config_nonsticky_failover_soln.html")</f>
         <v>https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.0/com.ibm.isam.doc_9.0/wrp_config/task/tsk_config_nonsticky_failover_soln.html</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
+    <row r="25" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="12" t="str">
+      <c r="G25" s="12" t="str">
         <f>HYPERLINK("https://www.ibm.com/support/knowledgecenter/SSPREK_7.0.0/com.ibm.isam.doc_70/ameb_webseal_guide/reference/ref_retain_eai_sess.html", "https://www.ibm.com/support/knowledgecenter/SSPREK_7.0.0/com.ibm.isam.doc_70/ameb_webseal_guide/reference/ref_retain_eai_sess.html")</f>
         <v>https://www.ibm.com/support/knowledgecenter/SSPREK_7.0.0/com.ibm.isam.doc_70/ameb_webseal_guide/reference/ref_retain_eai_sess.html</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+    <row r="26" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+    <row r="27" spans="2:8" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E27" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H27" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+    <row r="28" spans="2:8" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
+    <row r="29" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="12" t="str">
+      <c r="G29" s="12" t="str">
         <f>HYPERLINK("https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.3/com.ibm.isam.doc/productoverview/concept/whats_new.html ", "https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.3/com.ibm.isam.doc/productoverview/concept/whats_new.html ")</f>
         <v xml:space="preserve">https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.3/com.ibm.isam.doc/productoverview/concept/whats_new.html </v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+    <row r="30" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E30" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="D30" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>12</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>39</v>
+      <c r="D31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>39</v>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>39</v>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="96.6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="D35" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H40" s="11" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H35"/>
+  <autoFilter ref="B1:H40"/>
   <customSheetViews>
     <customSheetView guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" showAutoFilter="1">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="B1:H35"/>
+      <autoFilter ref="B1:H40"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2328,29 +3644,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="str">
         <f>HYPERLINK("https://github.com/IBM-Security/isam-support/raw/master/tuning/ISAM_Tuning.xlsx", "For latest updates 
 Click here")</f>
         <v>For latest updates 
 Click here</v>
       </c>
+      <c r="B1" s="23" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/tuning/ISAM_Tuning.xlsx
+++ b/tuning/ISAM_Tuning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicholasLloyd\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DANIELComeau\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{4212E530-493F-46D7-880D-3010FDC63776}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DAC336C-E441-4D83-A6CE-C5EFD30F86CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26100" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tuning" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,14 @@
     <definedName name="Z_428EE15C_FAD5_428C_9A93_0F1E50589A6D_.wvu.FilterData" localSheetId="0" hidden="1">Tuning!$B$1:$H$42</definedName>
     <definedName name="Z_7A28EEE4_7CBB_426C_85A0_94861B6A80F8_.wvu.FilterData" localSheetId="0" hidden="1">Tuning!$B$1:$H$42</definedName>
     <definedName name="Z_844DABFE_41AA_4E75_934E_5D9962E1C069_.wvu.FilterData" localSheetId="0" hidden="1">Tuning!$B$1:$H$42</definedName>
+    <definedName name="Z_992F61C4_A37A_4FB7_B015_E20A03B57544_.wvu.FilterData" localSheetId="0" hidden="1">Tuning!$B$1:$H$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="DANIEL Comeau - Personal View" guid="{992F61C4-A37A-4FB7-B015-E20A03B57544}" mergeInterval="0" personalView="1" xWindow="52" yWindow="52" windowWidth="1740" windowHeight="759" activeSheetId="1"/>
+    <customWorkbookView name="JACK YARBOROUGH - Personal View" guid="{844DABFE-41AA-4E75-934E-5D9962E1C069}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="whannon - Personal View" guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="962" activeSheetId="1"/>
     <customWorkbookView name="Nicholas Lloyd - Personal View" guid="{7A28EEE4-7CBB-426C-85A0-94861B6A80F8}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="whannon - Personal View" guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="962" activeSheetId="1"/>
-    <customWorkbookView name="JACK YARBOROUGH - Personal View" guid="{844DABFE-41AA-4E75-934E-5D9962E1C069}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -319,22 +321,6 @@
   </si>
   <si>
     <t>LMI</t>
-  </si>
-  <si>
-    <t>isam_cluster.config.connectionManager.agedTimeout = 3600
-isam_cluster.config.connectionManager.reapTime = 180 
-isam_cluster.config.properties.blockingReadConnectionTimeout = 30
-isam_cluster.config.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
-isam_cluster.config.properties.traceFile = db2jcc_trace_config.log
-isam_cluster.config.properties.traceLevel = -1</t>
-  </si>
-  <si>
-    <t>isam_cluster.hvdb.connectionManager.agedTimeout = 3600
-isam_cluster.hvdb.connectionManager.reapTime = 180
-isam_cluster.hvdb.properties.blockingReadConnectionTimeout = 30
-isam_cluster.hvdb.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
-isam_cluster.hvdb.properties.traceFile = db2jcc_trace.log
-isam_cluster.hvdb.properties.traceLevel = -1</t>
   </si>
   <si>
     <r>
@@ -599,6 +585,22 @@
   <si>
     <t>KEY: runtime_profile.liberty_option.httpOptions.maxKeepAliveRequests
 VALUE : 200</t>
+  </si>
+  <si>
+    <t>isam_cluster.config.connectionManager.agedTimeout = 3600
+isam_cluster.config.connectionManager.reapTime = 180 **** Do NOT apply to pre-903
+isam_cluster.config.properties.blockingReadConnectionTimeout = 30
+isam_cluster.config.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+isam_cluster.config.properties.traceFile = db2jcc_trace_config.log
+isam_cluster.config.properties.traceLevel = -1</t>
+  </si>
+  <si>
+    <t>isam_cluster.hvdb.connectionManager.agedTimeout = 3600
+isam_cluster.hvdb.connectionManager.reapTime = 180 **** Do NOT apply to pre-903
+isam_cluster.hvdb.properties.blockingReadConnectionTimeout = 30
+isam_cluster.hvdb.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+isam_cluster.hvdb.properties.traceFile = db2jcc_trace.log
+isam_cluster.hvdb.properties.traceLevel = -1</t>
   </si>
 </sst>
 </file>
@@ -874,7 +876,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{359378B0-8ACA-4580-99AF-33B7E0F951E0}" diskRevisions="1" revisionId="104" version="43" preserveHistory="9999">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{2955B6CA-1230-4BAE-B404-C4D68F1A1690}" diskRevisions="1" revisionId="107" version="2" preserveHistory="9999">
   <header guid="{B2AED240-CB75-45B8-8B56-2AD4B49A6DD4}" dateTime="2017-10-13T19:36:07" maxSheetId="3" userName="whannon" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1157,6 +1159,13 @@
     </sheetIdMap>
   </header>
   <header guid="{359378B0-8ACA-4580-99AF-33B7E0F951E0}" dateTime="2020-08-31T14:41:50" maxSheetId="4" userName="Nicholas Lloyd" r:id="rId43" minRId="103">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2955B6CA-1230-4BAE-B404-C4D68F1A1690}" dateTime="2021-03-23T13:44:48" maxSheetId="4" userName="DANIEL Comeau" r:id="rId44" minRId="105" maxRId="106">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2577,6 +2586,59 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog44.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="105" sId="1">
+    <oc r="E19" t="inlineStr">
+      <is>
+        <t>isam_cluster.config.connectionManager.agedTimeout = 3600
+isam_cluster.config.connectionManager.reapTime = 180 
+isam_cluster.config.properties.blockingReadConnectionTimeout = 30
+isam_cluster.config.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+isam_cluster.config.properties.traceFile = db2jcc_trace_config.log
+isam_cluster.config.properties.traceLevel = -1</t>
+      </is>
+    </oc>
+    <nc r="E19" t="inlineStr">
+      <is>
+        <t>isam_cluster.config.connectionManager.agedTimeout = 3600
+isam_cluster.config.connectionManager.reapTime = 180 **** Do NOT apply to pre-903
+isam_cluster.config.properties.blockingReadConnectionTimeout = 30
+isam_cluster.config.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+isam_cluster.config.properties.traceFile = db2jcc_trace_config.log
+isam_cluster.config.properties.traceLevel = -1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="106" sId="1">
+    <oc r="E20" t="inlineStr">
+      <is>
+        <t>isam_cluster.hvdb.connectionManager.agedTimeout = 3600
+isam_cluster.hvdb.connectionManager.reapTime = 180
+isam_cluster.hvdb.properties.blockingReadConnectionTimeout = 30
+isam_cluster.hvdb.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+isam_cluster.hvdb.properties.traceFile = db2jcc_trace.log
+isam_cluster.hvdb.properties.traceLevel = -1</t>
+      </is>
+    </oc>
+    <nc r="E20" t="inlineStr">
+      <is>
+        <t>isam_cluster.hvdb.connectionManager.agedTimeout = 3600
+isam_cluster.hvdb.connectionManager.reapTime = 180 **** Do NOT apply to pre-903
+isam_cluster.hvdb.properties.blockingReadConnectionTimeout = 30
+isam_cluster.hvdb.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+isam_cluster.hvdb.properties.traceFile = db2jcc_trace.log
+isam_cluster.hvdb.properties.traceLevel = -1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_992F61C4_A37A_4FB7_B015_E20A03B57544_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Tuning!$B$1:$H$42</formula>
+  </rdn>
+  <rcv guid="{992F61C4-A37A-4FB7-B015-E20A03B57544}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="5" sId="1">
@@ -2716,14 +2778,8 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="7">
-  <userInfo guid="{5EBCED96-2F81-4BB0-83BF-42F752F070A1}" name="whannon" id="-336981808" dateTime="2017-10-13T19:36:07"/>
-  <userInfo guid="{0FD5F71C-7ADA-4302-BC35-378762EAA384}" name="whannon" id="-336930999" dateTime="2017-11-08T12:53:42"/>
-  <userInfo guid="{9AE413E7-4820-4A67-95D2-81FA9633AFC5}" name="whannon" id="-336954853" dateTime="2018-02-08T14:52:55"/>
-  <userInfo guid="{B14E97BB-6730-456D-B1F3-A4D357F083EE}" name="whannon" id="-336972192" dateTime="2018-02-12T21:34:12"/>
-  <userInfo guid="{ADF04741-1686-4BE7-9728-B57B08F93CC4}" name="whannon" id="-336940639" dateTime="2018-02-28T10:47:28"/>
-  <userInfo guid="{23EDF4DE-73C5-4F3A-BB52-13D6F0D47A8B}" name="whannon" id="-336947481" dateTime="2018-04-10T11:55:47"/>
-  <userInfo guid="{DB29B508-87A6-42C8-82A8-73D7188DCD17}" name="JACK YARBOROUGH" id="-1848782151" dateTime="2020-08-31T14:11:42"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{359378B0-8ACA-4580-99AF-33B7E0F951E0}" name="DANIEL Comeau" id="-207621671" dateTime="2021-03-23T13:44:48"/>
 </users>
 </file>
 
@@ -3052,10 +3108,10 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3106,7 +3162,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G2" s="13" t="str">
         <f>HYPERLINK("https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.4/com.ibm.isam.doc/admin/task/tsk_install_virtual_appl_vm.html", "https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.4/com.ibm.isam.doc/admin/task/tsk_install_virtual_appl_vm.html")</f>
@@ -3123,10 +3179,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G3" s="13" t="str">
         <f>HYPERLINK("https://kb.vmware.com/s/article/1027511","https://kb.vmware.com/s/article/1027511")</f>
@@ -3143,10 +3199,10 @@
         <v>29</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="G4" s="13" t="str">
         <f>HYPERLINK("https://www.vmware.com/content/dam/digitalmarketing/vmware/en/pdf/techpaper/vmw-tuning-latency-sensitive-workloads-white-paper.pdf", "https://www.vmware.com/content/dam/digitalmarketing/vmware/en/pdf/techpaper/vmw-tuning-latency-sensitive-workloads-white-paper.pdf")</f>
@@ -3160,11 +3216,11 @@
         <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G5" s="13" t="str">
         <f>HYPERLINK("https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.4/com.ibm.isam.doc/admin/task/tsk_install_virtual_appl_rhev.html", "https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.4/com.ibm.isam.doc/admin/task/tsk_install_virtual_appl_rhev.html")</f>
@@ -3178,7 +3234,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
@@ -3249,13 +3305,13 @@
         <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="13"/>
@@ -3275,30 +3331,30 @@
         <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="171" x14ac:dyDescent="0.2">
@@ -3326,7 +3382,7 @@
         <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>7</v>
@@ -3374,7 +3430,7 @@
         <v>66</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>62</v>
@@ -3391,7 +3447,7 @@
         <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>39</v>
@@ -3412,7 +3468,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>39</v>
@@ -3433,7 +3489,7 @@
         <v>68</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>69</v>
@@ -3451,7 +3507,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>69</v>
@@ -3498,7 +3554,7 @@
         <v>37</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="57.75" x14ac:dyDescent="0.25">
@@ -3517,7 +3573,7 @@
         <v>37</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="57.75" x14ac:dyDescent="0.25">
@@ -3546,7 +3602,7 @@
         <v>37</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G30" s="12"/>
     </row>
@@ -3569,16 +3625,16 @@
         <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>102</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -3727,13 +3783,13 @@
     </row>
     <row r="42" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>19</v>
@@ -3742,30 +3798,37 @@
   </sheetData>
   <autoFilter ref="B1:H42" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7A28EEE4-7CBB-426C-85A0-94861B6A80F8}" showAutoFilter="1">
-      <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight"/>
+    <customSheetView guid="{992F61C4-A37A-4FB7-B015-E20A03B57544}" showAutoFilter="1">
+      <pane xSplit="4" ySplit="1" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
       <autoFilter ref="B1:H42" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+    </customSheetView>
+    <customSheetView guid="{844DABFE-41AA-4E75-934E-5D9962E1C069}" showAutoFilter="1">
+      <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="B1:H42" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" showAutoFilter="1">
       <pane xSplit="4" ySplit="1" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
       <autoFilter ref="B1:H40" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{844DABFE-41AA-4E75-934E-5D9962E1C069}" showAutoFilter="1">
+    <customSheetView guid="{7A28EEE4-7CBB-426C-85A0-94861B6A80F8}" showAutoFilter="1">
       <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
+      <pageSetup orientation="portrait" r:id="rId4"/>
       <autoFilter ref="B1:H42" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -3867,12 +3930,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7A28EEE4-7CBB-426C-85A0-94861B6A80F8}" state="hidden">
+    <customSheetView guid="{992F61C4-A37A-4FB7-B015-E20A03B57544}" state="hidden">
+      <selection activeCell="D8" sqref="D8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{844DABFE-41AA-4E75-934E-5D9962E1C069}" state="hidden">
       <selection activeCell="D8" sqref="D8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -3880,7 +3947,7 @@
       <selection activeCell="D8" sqref="D8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{844DABFE-41AA-4E75-934E-5D9962E1C069}" state="hidden">
+    <customSheetView guid="{7A28EEE4-7CBB-426C-85A0-94861B6A80F8}" state="hidden">
       <selection activeCell="D8" sqref="D8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -3911,12 +3978,16 @@
 Click here</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7A28EEE4-7CBB-426C-85A0-94861B6A80F8}">
+    <customSheetView guid="{992F61C4-A37A-4FB7-B015-E20A03B57544}">
+      <selection activeCell="B1" sqref="B1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{844DABFE-41AA-4E75-934E-5D9962E1C069}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -3924,7 +3995,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{844DABFE-41AA-4E75-934E-5D9962E1C069}">
+    <customSheetView guid="{7A28EEE4-7CBB-426C-85A0-94861B6A80F8}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>

--- a/tuning/ISAM_Tuning.xlsx
+++ b/tuning/ISAM_Tuning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DANIELComeau\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whannon@us.ibm.com/documentation/Am/Performance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DAC336C-E441-4D83-A6CE-C5EFD30F86CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{D3D91B5A-9E12-5349-87B7-9E89FF7074D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="26100" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tuning" sheetId="1" r:id="rId1"/>
@@ -18,18 +18,14 @@
     <sheet name="For Later Available Version" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tuning!$B$1:$H$42</definedName>
-    <definedName name="Z_428EE15C_FAD5_428C_9A93_0F1E50589A6D_.wvu.FilterData" localSheetId="0" hidden="1">Tuning!$B$1:$H$42</definedName>
-    <definedName name="Z_7A28EEE4_7CBB_426C_85A0_94861B6A80F8_.wvu.FilterData" localSheetId="0" hidden="1">Tuning!$B$1:$H$42</definedName>
-    <definedName name="Z_844DABFE_41AA_4E75_934E_5D9962E1C069_.wvu.FilterData" localSheetId="0" hidden="1">Tuning!$B$1:$H$42</definedName>
-    <definedName name="Z_992F61C4_A37A_4FB7_B015_E20A03B57544_.wvu.FilterData" localSheetId="0" hidden="1">Tuning!$B$1:$H$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tuning!$B$1:$H$45</definedName>
+    <definedName name="Z_340C4338_CA95_6642_AF8A_4D0D155F5409_.wvu.FilterData" localSheetId="0" hidden="1">Tuning!$B$1:$H$45</definedName>
+    <definedName name="Z_428EE15C_FAD5_428C_9A93_0F1E50589A6D_.wvu.FilterData" localSheetId="0" hidden="1">Tuning!$B$1:$H$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="DANIEL Comeau - Personal View" guid="{992F61C4-A37A-4FB7-B015-E20A03B57544}" mergeInterval="0" personalView="1" xWindow="52" yWindow="52" windowWidth="1740" windowHeight="759" activeSheetId="1"/>
-    <customWorkbookView name="JACK YARBOROUGH - Personal View" guid="{844DABFE-41AA-4E75-934E-5D9962E1C069}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="William Hannon Jr - Personal View" guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}" mergeInterval="0" personalView="1" maximized="1" yWindow="23" windowWidth="1680" windowHeight="1027" activeSheetId="1"/>
     <customWorkbookView name="whannon - Personal View" guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="962" activeSheetId="1"/>
-    <customWorkbookView name="Nicholas Lloyd - Personal View" guid="{7A28EEE4-7CBB-426C-85A0-94861B6A80F8}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -45,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="112">
   <si>
     <t>Area</t>
   </si>
@@ -66,18 +62,6 @@
   </si>
   <si>
     <t>If not present</t>
-  </si>
-  <si>
-    <t>78305</t>
-  </si>
-  <si>
-    <t>75378</t>
-  </si>
-  <si>
-    <t>95195</t>
-  </si>
-  <si>
-    <t>97913</t>
   </si>
   <si>
     <t>Performance
@@ -106,9 +90,6 @@
     <t>Tracing</t>
   </si>
   <si>
-    <t>98932</t>
-  </si>
-  <si>
     <t>97050</t>
   </si>
   <si>
@@ -128,9 +109,6 @@
   </si>
   <si>
     <t>db2 create index ALIAS_SVC_USERID_IX on ALIAS_SVC_ALIASUSERPARTNER (USERID, PARTNER, ALIASTYPE, DOMAIN);</t>
-  </si>
-  <si>
-    <t>102195</t>
   </si>
   <si>
     <t>db2 create index DEVICE_ID on USER_DEVICE(DEVICE_ID) COLLECT DETAILED STATISTICS;</t>
@@ -323,31 +301,188 @@
     <t>LMI</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">https://{appliance_hostname}/mga/runtime_tuning
+    <t>After final test(s) are completed
+  re-run with dedicated CPUs for comparison</t>
+  </si>
+  <si>
+    <t>Virtualized
+Environment</t>
+  </si>
+  <si>
+    <t>[server] max-idle-persistent-connections = 512</t>
+  </si>
+  <si>
+    <t>db2 create index ALIAS_SVC_ALIAS_IX on ALIAS_SVC_ALIASUSERPARTNER (ALIAS, PARTNER, ALIASTYPE, DOMAIN)</t>
+  </si>
+  <si>
+    <t>Recommend
+  [session] ssl-id-sessions = no</t>
+  </si>
+  <si>
+    <t>KVM</t>
+  </si>
+  <si>
+    <t>Use VMXNET3 for better performance instead of E1000 and potential hangs</t>
+  </si>
+  <si>
+    <t>Use Virtio for better performance instead of E1000 and potential hangs</t>
+  </si>
+  <si>
+    <t>All instances</t>
+  </si>
+  <si>
+    <t>Latency
+Problem</t>
+  </si>
+  <si>
+    <t>Poor TCP performance might occur in Linux virtual machines with LRO enabled (1027511)
+modprobe -r vmxnet3
+/etc/modprobe.conf vmxnet3 disable_lro=1
+modprobe vmxnet3</t>
+  </si>
+  <si>
+    <t>Non-Appliance
+Latency
+Problem</t>
+  </si>
+  <si>
+    <t>https://github.com/IBM-Security/isam-support/raw/master/tuning/ISAM_Tuning.xlsx</t>
+  </si>
+  <si>
+    <t>WebSEAL Backend Loadbalancer</t>
+  </si>
+  <si>
+    <t>SSL</t>
+  </si>
+  <si>
+    <t>If a Loadbalancer is used on a WebSEAL Backend SSL type junction
+  and
+not terminated
+Each new socket connection may be forced to do Full SSL Handshakes</t>
+  </si>
+  <si>
+    <t>Load and/or
+Performance</t>
+  </si>
+  <si>
+    <t>Monitor and ensure sufficient
+    [session]             max-entries = 4096 (default)
+    [session] unauth-max-entries = 4096 (default)
+Insufficient number of entries may cause performance delays</t>
+  </si>
+  <si>
+    <t>DSC</t>
+  </si>
+  <si>
+    <t>Monitor and ensure sufficient
+    [dsess-server] worker-threads = 64 (default)
+DSC worker threads needs to be large enough to handle the number of concurrent login requests per second from ALL WebSEALs
+Otherwise performance delays may appear in pdweb.snoop/pdweb.debug
+  between receiving a response from WebSEAL backend webserver and sending the response to the WebSEAL frontend client</t>
+  </si>
+  <si>
+    <t>Add additional helpful information for WebSEAL request.log(s)
+  [logging] request-log-format
+    %j %T %F %{PD-S-SESSION-ID}e %{PD-S-SESSION-ID}E %{X-FORWARDED-FOR}i %{tagvalue_session_index}C
+      X-FORWARDED-FOR may be change for different environments
+      PD-S-SESSION-ID      may be change for different environments</t>
+  </si>
+  <si>
+    <t>RTC119804</t>
+  </si>
+  <si>
+    <t>RTC117462</t>
+  </si>
+  <si>
+    <t>RTC78305</t>
+  </si>
+  <si>
+    <t>RTC75378</t>
+  </si>
+  <si>
+    <t>RTC97913</t>
+  </si>
+  <si>
+    <t>RTC102195</t>
+  </si>
+  <si>
+    <t>RTC98932</t>
+  </si>
+  <si>
+    <t>RTC95195</t>
+  </si>
+  <si>
+    <t>Kerberos SSO Junction</t>
+  </si>
+  <si>
+    <t>Disable Kerberos replay cache
+[system-environment-variables]
+KRB5RCACHETYPE=none</t>
+  </si>
+  <si>
+    <t>Disable sending WebSEAL sending a security token with every HTTP request
+[junction:&lt;junction_name&gt;]
+always-send-kerberos-tokens = false</t>
+  </si>
+  <si>
+    <t>ISAM 9.0.5.0 and above</t>
+  </si>
+  <si>
+    <t>Add additional helpful information for WebSEAL request.log(s)
+  [logging] request-log-format
+    %j %T %F %{PD-S-SESSION-ID}e %{PD-S-SESSION-ID}E %{X-FORWARDED-FOR}i %{tagvalue_session_index}C -J -S
+      X-FORWARDED-FOR may be change for different environments
+      PD-S-SESSION-ID      may be change for different environments</t>
+  </si>
+  <si>
+    <t>ISAM 9.0.4.0 and below</t>
+  </si>
+  <si>
+    <t>TFIM 6.2.2</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>https://{appliance_hostname}/adv_params
+  Initial Heap Size =
+  Max Heap Size =
+  Max Pool Size =
+  Maximum Log File Size = 100
+  Maximum Log Files = 100
+  Session Invalidation Timeout =
+  Session Reaper Poll Interval = 30</t>
+  </si>
+  <si>
+    <t>https://{appliance_hostname}/adv_params
   isam_cluster.config.connectionManager.connectionTimeout=20
   isam_cluster.config.connectionManager.maxIdleTime=300
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> isam_cluster.config.connectionManager.maxPoolSize=400 (Removed)</t>
-    </r>
+  Remove isam_cluster.config.connectionManager.maxPoolSize
+  isam_cluster.config.connectionManager.minPoolSize=10</t>
+  </si>
+  <si>
+    <t>https://{appliance_hostname}/adv_params
+  isam_cluster.hvdb.connectionManager.connectionTimeout=20
+  isam_cluster.hvdb.connectionManager.maxIdleTime=300
+ Remove isam_cluster.hvdb.connectionManager.maxPoolSize
+  isam_cluster.hvdb.connectionManager.minPoolSize=10</t>
+  </si>
+  <si>
+    <t>isam_cluster.config.properties.traceLevel = -1</t>
+  </si>
+  <si>
+    <t>HVDB debug</t>
+  </si>
+  <si>
+    <t>Config debug</t>
+  </si>
+  <si>
+    <t>isam_cluster.hvdb.properties.traceLevel = -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -355,259 +490,88 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">
-  isam_cluster.config.connectionManager.minPoolSize=10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">https://{appliance_hostname}/mga/runtime_tuning
-  isam_cluster.hvdb.connectionManager.connectionTimeout=20
-  isam_cluster.hvdb.connectionManager.maxIdleTime=300
- </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> isam_cluster.hvdb.connectionManager.maxPoolSize=400 (Removed)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-  isam_cluster.hvdb.connectionManager.minPoolSize=10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">https://{appliance_hostname}/mga/runtime_tuning
+      <t xml:space="preserve">isam_cluster.hvdb.connectionManager.agedTimeout = 3600s
+isam_cluster.hvdb.connectionManager.connectionTimeout=20s
+                                                                                                 ^^
+                                                                                                 Increase if using GeoIP DB
+isam_cluster.hvdb.connectionManager.enableSharingForDirectLookups = false
+isam_cluster.hvdb.connectionManager.maxIdleTime=300s
+If external database:
+isam_cluster.hvdb.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                       where &lt;number&gt; is calculated
+                                                                                         ( &lt;External_database_maximum_connections&gt; / number_of_nodes)
+                                                                                       Do NOT overcommit maximum connections
+If internal database:
+isam_cluster.hvdb.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                        where &lt;number&gt; is calculated ( &lt;Maximum_of_128&gt; / number_of_nodes)
+isam_cluster.hvdb.connectionManager.minPoolSize=10
+isam_cluster.hvdb.connectionManager.purgePolicy = FailingConnectionOnly
+isam_cluster.hvdb.connectionManager.reapTime = 180s
+isam_cluster.hvdb.properties.blockingReadConnectionTimeout = 30s
+isam_cluster.hvdb.properties.traceFile = db2jcc_trace.log
+isam_cluster.hvdb.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Initial Heap Size =</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-  </t>
+Remove isam_cluster.hvdb.properties.traceLevel</t>
     </r>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Max Heap Size =</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Max Pool Size =</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-  Maximum Log File Size = 100
-  Maximum Log Files = 100
+      <t xml:space="preserve">isam_cluster.config.connectionManager.agedTimeout = 3600s
+isam_cluster.config.connectionManager.connectionTimeout=20s
+                                                                                                  ^^
+                                                                                                  Increase if using GeoIP DB
+isam_cluster.config.connectionManager.enableSharingForDirectLookups = false
+isam_cluster.config.connectionManager.maxIdleTime=300s
+If external database:
+isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                         where &lt;number&gt; is calculated
+                                                                                           ( &lt;External_database_maximum_connections&gt; / number_of_nodes)
+                                                                                         Do NOT overcommit maximum connections
+If internal database:
+isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                         where &lt;number&gt; is calculated ( &lt;Maximum_of_128&gt; / number_of_nodes)
+isam_cluster.config.connectionManager.minPoolSize=10
+isam_cluster.config.connectionManager.purgePolicy = FailingConnectionOnly
+isam_cluster.config.connectionManager.reapTime = 180s
+isam_cluster.config.properties.blockingReadConnectionTimeout = 30s
+isam_cluster.config.properties.traceFile = db2jcc_trace.log
+isam_cluster.config.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color rgb="FFC00000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">  Session Invalidation Timeout =
- </t>
+      <t>Remove isam_cluster.config.properties.traceLevel</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Session Reaper Poll Interval = 30</t>
-    </r>
-  </si>
-  <si>
-    <t>After final test(s) are completed
-  re-run with dedicated CPUs for comparison</t>
-  </si>
-  <si>
-    <t>Virtualized
-Environment</t>
-  </si>
-  <si>
-    <t>[server] max-idle-persistent-connections = 512</t>
-  </si>
-  <si>
-    <t>db2 create index ALIAS_SVC_ALIAS_IX on ALIAS_SVC_ALIASUSERPARTNER (ALIAS, PARTNER, ALIASTYPE, DOMAIN)</t>
-  </si>
-  <si>
-    <t>Recommend
-  [session] ssl-id-sessions = no</t>
-  </si>
-  <si>
-    <t>KVM</t>
-  </si>
-  <si>
-    <t>Use VMXNET3 for better performance instead of E1000 and potential hangs</t>
-  </si>
-  <si>
-    <t>Use Virtio for better performance instead of E1000 and potential hangs</t>
-  </si>
-  <si>
-    <t>Add additional helpful information for WebSEAL request.log(s)
-  [logging] request-log-format
-    %j %T %F %{PD-S-SESSION-ID}e %{PD-S-SESSION-ID}E %{X-FORWARED-FOR}i
-      X-FORWARDED-FOR may be change for different environments
-      PD-S-SESSION-ID      may be change for different environments</t>
-  </si>
-  <si>
-    <t>All instances</t>
-  </si>
-  <si>
-    <t>Latency
-Problem</t>
-  </si>
-  <si>
-    <t>Poor TCP performance might occur in Linux virtual machines with LRO enabled (1027511)
-modprobe -r vmxnet3
-/etc/modprobe.conf vmxnet3 disable_lro=1
-modprobe vmxnet3</t>
-  </si>
-  <si>
-    <t>Best Practices for Performance Tuning of Latency-Sensitive
+  </si>
+  <si>
+    <t>Sufficient VMWare vmkernel scheduler CPU resources
+Best Practices for Performance Tuning of Latency-Sensitive
 BIOS Power Management settings
 InterruptThrottleRate
 ethernetX.coalescingScheme
 Do not overcommit vCPUs as compared to pCPUs
-Sufficient VMWare vmkernel scheduler CPU resources
 Do not overcommit VMWare physical memory</t>
-  </si>
-  <si>
-    <t>Non-Appliance
-Latency
-Problem</t>
-  </si>
-  <si>
-    <t>https://github.com/IBM-Security/isam-support/raw/master/tuning/ISAM_Tuning.xlsx</t>
-  </si>
-  <si>
-    <t>WebSEAL Backend Loadbalancer</t>
-  </si>
-  <si>
-    <t>SSL</t>
-  </si>
-  <si>
-    <t>If a Loadbalancer is used on a WebSEAL Backend SSL type junction
-  and
-not terminated
-Each new socket connection may be forced to do Full SSL Handshakes</t>
-  </si>
-  <si>
-    <t>Load and/or
-Performance</t>
-  </si>
-  <si>
-    <t>Monitor and ensure sufficient
-    [session]             max-entries = 4096 (default)
-    [session] unauth-max-entries = 4096 (default)
-Insufficient number of entries may cause performance delays</t>
-  </si>
-  <si>
-    <t>DSC</t>
-  </si>
-  <si>
-    <t>117462</t>
-  </si>
-  <si>
-    <t>Monitor and ensure sufficient
-    [dsess-server] worker-threads = 64 (default)
-DSC worker threads needs to be large enough to handle the number of concurrent login requests per second from ALL WebSEALs
-Otherwise performance delays may appear in pdweb.snoop/pdweb.debug
-  between receiving a response from WebSEAL backend webserver and sending the response to the WebSEAL frontend client</t>
-  </si>
-  <si>
-    <t>AAC Junction Max Cached Persistent Connections
-  [junction:/mga] max-cached-persistent-connections = 100</t>
-  </si>
-  <si>
-    <t>https://www.ibm.com/support/knowledgecenter/SS7K4U_liberty/com.ibm.websphere.liberty.autogen.zos.doc/ae/rwlp_config_httpOptions.html</t>
-  </si>
-  <si>
-    <t>Advancted Tuning Parameter</t>
-  </si>
-  <si>
-    <t>AAC/Federation JVM Persistent Connection Tuning</t>
-  </si>
-  <si>
-    <t>KEY: runtime_profile.liberty_option.httpOptions.maxKeepAliveRequests
-VALUE : 200</t>
-  </si>
-  <si>
-    <t>isam_cluster.config.connectionManager.agedTimeout = 3600
-isam_cluster.config.connectionManager.reapTime = 180 **** Do NOT apply to pre-903
-isam_cluster.config.properties.blockingReadConnectionTimeout = 30
-isam_cluster.config.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
-isam_cluster.config.properties.traceFile = db2jcc_trace_config.log
-isam_cluster.config.properties.traceLevel = -1</t>
-  </si>
-  <si>
-    <t>isam_cluster.hvdb.connectionManager.agedTimeout = 3600
-isam_cluster.hvdb.connectionManager.reapTime = 180 **** Do NOT apply to pre-903
-isam_cluster.hvdb.properties.blockingReadConnectionTimeout = 30
-isam_cluster.hvdb.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
-isam_cluster.hvdb.properties.traceFile = db2jcc_trace.log
-isam_cluster.hvdb.properties.traceLevel = -1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,19 +608,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.14999847407452621"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.14996795556505021"/>
+      <color rgb="FFC00000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -782,7 +740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -849,6 +807,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -876,7 +837,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{2955B6CA-1230-4BAE-B404-C4D68F1A1690}" diskRevisions="1" revisionId="107" version="2" preserveHistory="9999">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1E3E9BA8-1B5A-3044-A730-F5D4537C6D24}" diskRevisions="1" revisionId="179" version="68" preserveHistory="9999">
   <header guid="{B2AED240-CB75-45B8-8B56-2AD4B49A6DD4}" dateTime="2017-10-13T19:36:07" maxSheetId="3" userName="whannon" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1151,21 +1112,189 @@
       <sheetId val="3"/>
     </sheetIdMap>
   </header>
-  <header guid="{DB29B508-87A6-42C8-82A8-73D7188DCD17}" dateTime="2020-08-31T14:21:06" maxSheetId="4" userName="JACK YARBOROUGH" r:id="rId42" minRId="92" maxRId="101">
+  <header guid="{3DBE78C6-56CC-4FF7-A5E8-CB2E7C8249E0}" dateTime="2018-04-10T16:10:22" maxSheetId="4" userName="whannon" r:id="rId42" minRId="92">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
     </sheetIdMap>
   </header>
-  <header guid="{359378B0-8ACA-4580-99AF-33B7E0F951E0}" dateTime="2020-08-31T14:41:50" maxSheetId="4" userName="Nicholas Lloyd" r:id="rId43" minRId="103">
+  <header guid="{4544F707-A3AF-453C-8276-EF8665C68972}" dateTime="2018-05-07T09:20:37" maxSheetId="4" userName="whannon" r:id="rId43" minRId="93">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
     </sheetIdMap>
   </header>
-  <header guid="{2955B6CA-1230-4BAE-B404-C4D68F1A1690}" dateTime="2021-03-23T13:44:48" maxSheetId="4" userName="DANIEL Comeau" r:id="rId44" minRId="105" maxRId="106">
+  <header guid="{61A19304-1887-4212-B9AE-D2FF9E9FA4FB}" dateTime="2018-05-23T10:44:33" maxSheetId="4" userName="whannon" r:id="rId44" minRId="94">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CFCA9B82-CB12-4EFD-819C-CBB16F28EF7A}" dateTime="2018-07-11T17:05:54" maxSheetId="4" userName="whannon" r:id="rId45" minRId="95" maxRId="96">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3FE09692-804C-4EA5-B790-6801D2AE8BF6}" dateTime="2018-07-25T12:37:04" maxSheetId="4" userName="whannon" r:id="rId46" minRId="97" maxRId="118">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5ADAEB51-98BA-43FE-B239-6B41A59DA4AB}" dateTime="2018-07-25T12:43:49" maxSheetId="4" userName="whannon" r:id="rId47" minRId="119">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3B42A8F1-AEC9-4BAD-8413-4AEF3E2CB2C0}" dateTime="2018-07-25T12:58:48" maxSheetId="4" userName="whannon" r:id="rId48" minRId="120" maxRId="123">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{ABAE598C-2F82-40AB-B558-BC637C6750EC}" dateTime="2018-07-25T13:03:03" maxSheetId="4" userName="whannon" r:id="rId49" minRId="124" maxRId="126">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BB6D5D7B-16EF-48D8-826C-7FA2902F4F3F}" dateTime="2018-07-25T13:03:17" maxSheetId="4" userName="whannon" r:id="rId50" minRId="127">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{473E4B9E-96C0-44EF-A028-1090C59E0915}" dateTime="2018-07-25T13:04:03" maxSheetId="4" userName="whannon" r:id="rId51" minRId="128">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{67A00947-70F5-6B4F-93D5-6896231B4A9E}" dateTime="2020-05-13T14:15:25" maxSheetId="4" userName="William Hannon Jr" r:id="rId52" minRId="129" maxRId="132">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0C32615F-2682-C04B-8D2C-9BA9F8F1F908}" dateTime="2020-05-13T14:15:38" maxSheetId="4" userName="William Hannon Jr" r:id="rId53" minRId="134">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B2DBF983-6DAB-6F40-A024-447E238D6676}" dateTime="2020-05-13T14:20:50" maxSheetId="4" userName="William Hannon Jr" r:id="rId54" minRId="135">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{127D7EAA-784B-1449-A537-46A03EBB932F}" dateTime="2020-07-02T15:01:29" maxSheetId="4" userName="William Hannon Jr" r:id="rId55" minRId="137" maxRId="139">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7233DD0B-8401-4A43-884F-F073DB2DA51D}" dateTime="2020-07-02T15:08:14" maxSheetId="4" userName="William Hannon Jr" r:id="rId56" minRId="140" maxRId="141">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5DDA27C7-BB20-7249-8BF6-6AD09CE8F55A}" dateTime="2020-07-02T15:20:16" maxSheetId="4" userName="William Hannon Jr" r:id="rId57">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A9E229B8-CF17-4C43-AF7D-B4E6947800EE}" dateTime="2020-07-02T15:27:10" maxSheetId="4" userName="William Hannon Jr" r:id="rId58" minRId="143" maxRId="147">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5B67FE95-4F06-6547-A4F7-26FE298C9D42}" dateTime="2020-07-02T15:27:43" maxSheetId="4" userName="William Hannon Jr" r:id="rId59" minRId="148" maxRId="150">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{82CB29D9-D2DF-D047-AAA6-0764C362A282}" dateTime="2020-07-02T15:34:27" maxSheetId="4" userName="William Hannon Jr" r:id="rId60" minRId="151" maxRId="166">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{93173163-EFA3-F34B-B659-F9899B8EAE9C}" dateTime="2020-07-02T15:35:17" maxSheetId="4" userName="William Hannon Jr" r:id="rId61" minRId="167" maxRId="169">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AC9CE79B-8C52-1744-B28F-6E168B04899E}" dateTime="2020-07-02T15:38:42" maxSheetId="4" userName="William Hannon Jr" r:id="rId62" minRId="170">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6EE56524-0985-E34B-8DF6-FDF886259712}" dateTime="2021-09-01T13:25:34" maxSheetId="4" userName="William Hannon Jr" r:id="rId63" minRId="172" maxRId="173">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9B1C496A-7705-1341-9BA6-EB4872790293}" dateTime="2021-09-01T13:44:29" maxSheetId="4" userName="William Hannon Jr" r:id="rId64" minRId="174">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{06BACEC5-8548-B049-B3A3-AE3A7D0680D5}" dateTime="2021-09-01T13:53:23" maxSheetId="4" userName="William Hannon Jr" r:id="rId65" minRId="175" maxRId="176">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D09C8D99-8C05-4546-B900-4ADDA5B4D6CC}" dateTime="2021-09-01T13:53:37" maxSheetId="4" userName="William Hannon Jr" r:id="rId66">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AB695391-955D-C94F-97F5-B9D2D69CCA37}" dateTime="2021-09-01T13:55:08" maxSheetId="4" userName="William Hannon Jr" r:id="rId67" minRId="178">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1E3E9BA8-1B5A-3044-A730-F5D4537C6D24}" dateTime="2021-09-01T14:40:49" maxSheetId="4" userName="William Hannon Jr" r:id="rId68" minRId="179">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2481,49 +2610,1186 @@
 
 <file path=xl/revisions/revisionLog42.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="92" sId="1" ref="A30:XFD30" action="insertRow"/>
+  <rcc rId="92" sId="1">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t xml:space="preserve">TCP </t>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>TCP</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog43.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="93" sId="1">
-    <nc r="B30" t="inlineStr">
-      <is>
-        <t>AAC</t>
-      </is>
-    </nc>
-  </rcc>
+    <oc r="E28" t="inlineStr">
+      <is>
+        <t>Add additional helpful information for WebSEAL request.log(s)
+  [logging] request-log-format
+    %j %T %F %{PD-S-SESSION-ID}e %{PD-S-SESSION-ID}E %{X-FORWARED-FOR}i
+      X-FORWARDED-FOR may be change for different environments
+      PD-S-SESSION-ID      may be change for different environments</t>
+      </is>
+    </oc>
+    <nc r="E28" t="inlineStr">
+      <is>
+        <t>Add additional helpful information for WebSEAL request.log(s)
+  [logging] request-log-format
+    %j %T %F %{PD-S-SESSION-ID}e %{PD-S-SESSION-ID}E %{X-FORWARDED-FOR}i
+      X-FORWARDED-FOR may be change for different environments
+      PD-S-SESSION-ID      may be change for different environments</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog44.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="94" sId="1">
-    <nc r="C30" t="inlineStr">
+    <oc r="E4" t="inlineStr">
+      <is>
+        <t>Best Practices for Performance Tuning of Latency-Sensitive
+BIOS Power Management settings
+InterruptThrottleRate
+ethernetX.coalescingScheme
+Do not overcommit vCPUs as compared to pCPUs
+Sufficient VMWare vmkernel scheduler CPU resources
+Do not overcommit VMWare physical memory</t>
+      </is>
+    </oc>
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t>Best Practices for Performance Tuning of Latency-Sensitive
+BIOS Power Management settings
+Sufficient VMWare vmkernel scheduler CPU resources
+InterruptThrottleRate
+ethernetX.coalescingScheme
+Do not overcommit vCPUs as compared to pCPUs
+Do not overcommit VMWare physical memory</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog45.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="95" sId="1" numFmtId="19">
+    <oc r="A1">
+      <v>43200</v>
+    </oc>
+    <nc r="A1">
+      <v>43292</v>
+    </nc>
+  </rcc>
+  <rcc rId="96" sId="1">
+    <oc r="E28" t="inlineStr">
+      <is>
+        <t>Add additional helpful information for WebSEAL request.log(s)
+  [logging] request-log-format
+    %j %T %F %{PD-S-SESSION-ID}e %{PD-S-SESSION-ID}E %{X-FORWARDED-FOR}i
+      X-FORWARDED-FOR may be change for different environments
+      PD-S-SESSION-ID      may be change for different environments</t>
+      </is>
+    </oc>
+    <nc r="E28" t="inlineStr">
+      <is>
+        <t>Add additional helpful information for WebSEAL request.log(s)
+  [logging] request-log-format
+    %j %T %F %{PD-S-SESSION-ID}e %{PD-S-SESSION-ID}E %{X-FORWARDED-FOR}i %{tagvalue_session_index}C
+      X-FORWARDED-FOR may be change for different environments
+      PD-S-SESSION-ID      may be change for different environments</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog46.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="97" sId="1" numFmtId="19">
+    <oc r="A1">
+      <v>43292</v>
+    </oc>
+    <nc r="A1">
+      <v>43306</v>
+    </nc>
+  </rcc>
+  <rrc rId="98" sId="1" ref="A29:XFD29" action="insertRow"/>
+  <rcc rId="99" sId="1">
+    <nc r="B29" t="inlineStr">
       <is>
         <t>WebSEAL</t>
       </is>
     </nc>
   </rcc>
-  <rcc rId="95" sId="1">
-    <nc r="E30" t="inlineStr">
-      <is>
-        <t>AAC Junction Max Cached Persistent Connections
-  [junction:/mga] max-cached-persistent-connections = 100</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="96" sId="1" ref="A32:XFD32" action="insertRow"/>
-  <rcc rId="97" sId="1">
-    <nc r="B32" t="inlineStr">
-      <is>
-        <t>AAC</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="98" sId="1" xfDxf="1" dxf="1">
-    <nc r="G32" t="inlineStr">
-      <is>
-        <t>https://www.ibm.com/support/knowledgecenter/SS7K4U_liberty/com.ibm.websphere.liberty.autogen.zos.doc/ae/rwlp_config_httpOptions.html</t>
-      </is>
-    </nc>
-    <ndxf>
+  <rcc rId="100" sId="1">
+    <nc r="C29" t="inlineStr">
+      <is>
+        <t>Kerberos
+Junction</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="101" sId="1">
+    <nc r="E29" t="inlineStr">
+      <is>
+        <t>[junction:&lt;junction&gt;]
+always-send-kerberos-tokens = false</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="102" sId="1">
+    <nc r="H29" t="inlineStr">
+      <is>
+        <t>RTC119804</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="103" sId="1">
+    <oc r="H12" t="inlineStr">
+      <is>
+        <t>117462</t>
+      </is>
+    </oc>
+    <nc r="H12" t="inlineStr">
+      <is>
+        <t>RTC117462</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="104" sId="1">
+    <oc r="H13" t="inlineStr">
+      <is>
+        <t>117462</t>
+      </is>
+    </oc>
+    <nc r="H13" t="inlineStr">
+      <is>
+        <t>RTC117462</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="105" sId="1">
+    <oc r="H15" t="inlineStr">
+      <is>
+        <t>78305</t>
+      </is>
+    </oc>
+    <nc r="H15" t="inlineStr">
+      <is>
+        <t>RTC78305</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="106" sId="1">
+    <oc r="H16" t="inlineStr">
+      <is>
+        <t>78305</t>
+      </is>
+    </oc>
+    <nc r="H16" t="inlineStr">
+      <is>
+        <t>RTC78305</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="107" sId="1">
+    <oc r="H17" t="inlineStr">
+      <is>
+        <t>75378</t>
+      </is>
+    </oc>
+    <nc r="H17" t="inlineStr">
+      <is>
+        <t>RTC75378</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="108" sId="1">
+    <oc r="H27" t="inlineStr">
+      <is>
+        <t>97913</t>
+      </is>
+    </oc>
+    <nc r="H27" t="inlineStr">
+      <is>
+        <t>RTC97913</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="109" sId="1">
+    <oc r="H31" t="inlineStr">
+      <is>
+        <t>97913</t>
+      </is>
+    </oc>
+    <nc r="H31" t="inlineStr">
+      <is>
+        <t>RTC97913</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="110" sId="1">
+    <oc r="H33" t="inlineStr">
+      <is>
+        <t>75378</t>
+      </is>
+    </oc>
+    <nc r="H33" t="inlineStr">
+      <is>
+        <t>RTC75378</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="111" sId="1">
+    <oc r="H34" t="inlineStr">
+      <is>
+        <t>102195</t>
+      </is>
+    </oc>
+    <nc r="H34" t="inlineStr">
+      <is>
+        <t>RTC102195</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="112" sId="1">
+    <oc r="H36" t="inlineStr">
+      <is>
+        <t>97913</t>
+      </is>
+    </oc>
+    <nc r="H36" t="inlineStr">
+      <is>
+        <t>RTC97913</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="113" sId="1">
+    <oc r="H37" t="inlineStr">
+      <is>
+        <t>97913</t>
+      </is>
+    </oc>
+    <nc r="H37" t="inlineStr">
+      <is>
+        <t>RTC97913</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="114" sId="1">
+    <oc r="H38" t="inlineStr">
+      <is>
+        <t>97913</t>
+      </is>
+    </oc>
+    <nc r="H38" t="inlineStr">
+      <is>
+        <t>RTC97913</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="115" sId="1">
+    <oc r="H39" t="inlineStr">
+      <is>
+        <t>97913</t>
+      </is>
+    </oc>
+    <nc r="H39" t="inlineStr">
+      <is>
+        <t>RTC97913</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="116" sId="1">
+    <oc r="H40" t="inlineStr">
+      <is>
+        <t>98932</t>
+      </is>
+    </oc>
+    <nc r="H40" t="inlineStr">
+      <is>
+        <t>RTC98932</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="117" sId="1">
+    <oc r="H41" t="inlineStr">
+      <is>
+        <t>98932</t>
+      </is>
+    </oc>
+    <nc r="H41" t="inlineStr">
+      <is>
+        <t>RTC98932</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="118" sId="1">
+    <oc r="H32" t="inlineStr">
+      <is>
+        <t>95195</t>
+      </is>
+    </oc>
+    <nc r="H32" t="inlineStr">
+      <is>
+        <t>RTC95195</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog47.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="119" sId="1">
+    <oc r="C29" t="inlineStr">
+      <is>
+        <t>Kerberos
+Junction</t>
+      </is>
+    </oc>
+    <nc r="C29" t="inlineStr">
+      <is>
+        <t>Kerberos SSO Junction</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog48.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="120" sId="1" ref="A29:XFD29" action="insertRow"/>
+  <rcc rId="121" sId="1">
+    <nc r="B29" t="inlineStr">
+      <is>
+        <t>WebSEAL</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="122" sId="1">
+    <nc r="C29" t="inlineStr">
+      <is>
+        <t>Kerberos SSO Junction</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="123" sId="1">
+    <nc r="E29" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Disable Kerberos replay cache
+</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog49.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="124" sId="1" odxf="1" dxf="1">
+    <nc r="G29">
+      <f>HYPERLINK("https://web.mit.edu/kerberos/krb5-latest/doc/basic/rcache_def.html","https://web.mit.edu/kerberos/krb5-latest/doc/basic/rcache_def.html")</f>
+    </nc>
+    <odxf>
       <font>
+        <u val="none"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment wrapText="1"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <color theme="10"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="125" sId="1">
+    <oc r="E29" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Disable Kerberos replay cache
+</t>
+      </is>
+    </oc>
+    <nc r="E29" t="inlineStr">
+      <is>
+        <t>Disable Kerberos replay cache
+[system-environment-variables]
+KRB5RCACHETYPE=none</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="126" sId="1">
+    <oc r="E30" t="inlineStr">
+      <is>
+        <t>[junction:&lt;junction&gt;]
+always-send-kerberos-tokens = false</t>
+      </is>
+    </oc>
+    <nc r="E30" t="inlineStr">
+      <is>
+        <t>Disable sending WebSEAL sending a security token for every HTTP request
+[junction:&lt;junction&gt;]
+always-send-kerberos-tokens = false</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="5" sId="1">
+    <oc r="D22" t="inlineStr">
+      <is>
+        <t>Add additional helpful to the request.log(s)
+  [logging] request-log-format
+    %j %T %F %{PD-S-SESSION-ID}e %{PD-S-SESSION-ID}E %{X-FORWARED-FOR}I
+      X-FORWARDED-FOR may be change for different environments</t>
+      </is>
+    </oc>
+    <nc r="D22" t="inlineStr">
+      <is>
+        <t>Add additional helpful information for WebSEAL request.log(s)
+  [logging] request-log-format
+    %j %T %F %{PD-S-SESSION-ID}e %{PD-S-SESSION-ID}E %{X-FORWARED-FOR}i
+      X-FORWARDED-FOR may be change for different environments</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog50.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="127" sId="1">
+    <oc r="E30" t="inlineStr">
+      <is>
+        <t>Disable sending WebSEAL sending a security token for every HTTP request
+[junction:&lt;junction&gt;]
+always-send-kerberos-tokens = false</t>
+      </is>
+    </oc>
+    <nc r="E30" t="inlineStr">
+      <is>
+        <t>Disable sending WebSEAL sending a security token with every HTTP request
+[junction:&lt;junction&gt;]
+always-send-kerberos-tokens = false</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog51.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="128" sId="1">
+    <oc r="E30" t="inlineStr">
+      <is>
+        <t>Disable sending WebSEAL sending a security token with every HTTP request
+[junction:&lt;junction&gt;]
+always-send-kerberos-tokens = false</t>
+      </is>
+    </oc>
+    <nc r="E30" t="inlineStr">
+      <is>
+        <t>Disable sending WebSEAL sending a security token with every HTTP request
+[junction:&lt;junction_name&gt;]
+always-send-kerberos-tokens = false</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog52.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="129" sId="1" ref="A29:XFD29" action="insertRow"/>
+  <rcc rId="130" sId="1">
+    <nc r="B29" t="inlineStr">
+      <is>
+        <t>WebSEAL</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="131" sId="1">
+    <nc r="D29" t="inlineStr">
+      <is>
+        <t>ISAM 9.0.5.0 and above</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="132" sId="1">
+    <nc r="E29" t="inlineStr">
+      <is>
+        <t>Add additional helpful information for WebSEAL request.log(s)
+  [logging] request-log-format
+    %j %T %F %{PD-S-SESSION-ID}e %{PD-S-SESSION-ID}E %{X-FORWARDED-FOR}i %{tagvalue_session_index}C -J -S
+      X-FORWARDED-FOR may be change for different environments
+      PD-S-SESSION-ID      may be change for different environments</t>
+      </is>
+    </nc>
+  </rcc>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_340C4338_CA95_6642_AF8A_4D0D155F5409_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Tuning!$B$1:$H$43</formula>
+  </rdn>
+  <rcv guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog53.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="134" sId="1">
+    <nc r="D28" t="inlineStr">
+      <is>
+        <t>ISAM 9.0.4.0 and below</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog54.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="135" sId="1" numFmtId="19">
+    <oc r="A1">
+      <v>43306</v>
+    </oc>
+    <nc r="A1">
+      <v>43964</v>
+    </nc>
+  </rcc>
+  <rcv guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_340C4338_CA95_6642_AF8A_4D0D155F5409_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Tuning!$B$1:$H$43</formula>
+    <oldFormula>Tuning!$B$1:$H$43</oldFormula>
+  </rdn>
+  <rcv guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog55.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="137" sId="1">
+    <oc r="B34" t="inlineStr">
+      <is>
+        <t>AAC</t>
+      </is>
+    </oc>
+    <nc r="B34" t="inlineStr">
+      <is>
+        <t>TFIM 6.2.2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="138" sId="1">
+    <oc r="B35" t="inlineStr">
+      <is>
+        <t>AAC</t>
+      </is>
+    </oc>
+    <nc r="B35" t="inlineStr">
+      <is>
+        <t>TFIM 6.2.2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="139" sId="1">
+    <oc r="B36" t="inlineStr">
+      <is>
+        <t>AAC</t>
+      </is>
+    </oc>
+    <nc r="B36" t="inlineStr">
+      <is>
+        <t>TFIM 6.2.2</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog56.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="140" sId="1" quotePrefix="1">
+    <oc r="E22" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">https://{appliance_hostname}/mga/runtime_tuning
+  isam_cluster.hvdb.connectionManager.connectionTimeout=20
+  isam_cluster.hvdb.connectionManager.maxIdleTime=300
+ </t>
+        </r>
+        <r>
+          <rPr>
+            <strike/>
+            <sz val="11"/>
+            <color theme="0" tint="-0.14996795556505021"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> isam_cluster.hvdb.connectionManager.maxPoolSize=400 (Removed)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+  isam_cluster.hvdb.connectionManager.minPoolSize=10</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="E22" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">https://{appliance_hostname}/mga/runtime_tuning
+  isam_cluster.hvdb.connectionManager.connectionTimeout=20
+  isam_cluster.hvdb.connectionManager.maxIdleTime=300
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="5" tint="-0.249977111117893"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Remove isam_cluster.hvdb.connectionManager.maxPoolSize</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+  isam_cluster.hvdb.connectionManager.minPoolSize=10</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="141" sId="1" quotePrefix="1">
+    <oc r="E21" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">https://{appliance_hostname}/mga/runtime_tuning
+  isam_cluster.config.connectionManager.connectionTimeout=20
+  isam_cluster.config.connectionManager.maxIdleTime=300
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="0" tint="-0.14999847407452621"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <strike/>
+            <sz val="11"/>
+            <color theme="0" tint="-0.14996795556505021"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> isam_cluster.config.connectionManager.maxPoolSize=400 (Removed)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+  isam_cluster.config.connectionManager.minPoolSize=10</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="E21" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">https://{appliance_hostname}/mga/runtime_tuning
+  isam_cluster.config.connectionManager.connectionTimeout=20
+  isam_cluster.config.connectionManager.maxIdleTime=300
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="0" tint="-0.14999847407452621"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="5" tint="-0.249977111117893"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Remove isam_cluster.config.connectionManager.maxPoolSize</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+  isam_cluster.config.connectionManager.minPoolSize=10</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog57.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_340C4338_CA95_6642_AF8A_4D0D155F5409_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Tuning!$B$1:$H$43</formula>
+    <oldFormula>Tuning!$B$1:$H$43</oldFormula>
+  </rdn>
+  <rcv guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog58.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="143" sId="1">
+    <nc r="A33" t="inlineStr">
+      <is>
+        <t>u</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="144" sId="1" numFmtId="19">
+    <oc r="A1">
+      <v>43964</v>
+    </oc>
+    <nc r="A1">
+      <v>44014</v>
+    </nc>
+  </rcc>
+  <rcc rId="145" sId="1" quotePrefix="1">
+    <oc r="E18" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">https://{appliance_hostname}/mga/runtime_tuning
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="0" tint="-0.14999847407452621"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  Initial Heap Size =</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="0" tint="-0.14999847407452621"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Max Heap Size =</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="0" tint="-0.14999847407452621"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Max Pool Size =</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+  Maximum Log File Size = 100
+  Maximum Log Files = 100
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="0" tint="-0.14999847407452621"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  Session Invalidation Timeout =
+ </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Session Reaper Poll Interval = 30</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="E18" t="inlineStr">
+      <is>
+        <t>https://{appliance_hostname}//adv_params
+  Initial Heap Size =
+  Max Heap Size =
+  Max Pool Size =
+  Maximum Log File Size = 100
+  Maximum Log Files = 100
+  Session Invalidation Timeout =
+  Session Reaper Poll Interval = 30</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="146" sId="1" quotePrefix="1">
+    <oc r="E21" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">https://{appliance_hostname}/mga/runtime_tuning
+  isam_cluster.config.connectionManager.connectionTimeout=20
+  isam_cluster.config.connectionManager.maxIdleTime=300
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="0" tint="-0.14999847407452621"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="5" tint="-0.249977111117893"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Remove isam_cluster.config.connectionManager.maxPoolSize</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+  isam_cluster.config.connectionManager.minPoolSize=10</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="E21" t="inlineStr">
+      <is>
+        <t>https://{appliance_hostname}//adv_params
+  isam_cluster.config.connectionManager.connectionTimeout=20
+  isam_cluster.config.connectionManager.maxIdleTime=300
+  Remove isam_cluster.config.connectionManager.maxPoolSize
+  isam_cluster.config.connectionManager.minPoolSize=10</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="147" sId="1" quotePrefix="1">
+    <oc r="E22" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">https://{appliance_hostname}/mga/runtime_tuning
+  isam_cluster.hvdb.connectionManager.connectionTimeout=20
+  isam_cluster.hvdb.connectionManager.maxIdleTime=300
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="5" tint="-0.249977111117893"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Remove isam_cluster.hvdb.connectionManager.maxPoolSize</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+  isam_cluster.hvdb.connectionManager.minPoolSize=10</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="E22" t="inlineStr">
+      <is>
+        <t>https://{appliance_hostname}//adv_params
+  isam_cluster.hvdb.connectionManager.connectionTimeout=20
+  isam_cluster.hvdb.connectionManager.maxIdleTime=300
+ Remove isam_cluster.hvdb.connectionManager.maxPoolSize
+  isam_cluster.hvdb.connectionManager.minPoolSize=10</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog59.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="148" sId="1" quotePrefix="1">
+    <oc r="E18" t="inlineStr">
+      <is>
+        <t>https://{appliance_hostname}//adv_params
+  Initial Heap Size =
+  Max Heap Size =
+  Max Pool Size =
+  Maximum Log File Size = 100
+  Maximum Log Files = 100
+  Session Invalidation Timeout =
+  Session Reaper Poll Interval = 30</t>
+      </is>
+    </oc>
+    <nc r="E18" t="inlineStr">
+      <is>
+        <t>https://{appliance_hostname}/adv_params
+  Initial Heap Size =
+  Max Heap Size =
+  Max Pool Size =
+  Maximum Log File Size = 100
+  Maximum Log Files = 100
+  Session Invalidation Timeout =
+  Session Reaper Poll Interval = 30</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="149" sId="1" quotePrefix="1">
+    <oc r="E21" t="inlineStr">
+      <is>
+        <t>https://{appliance_hostname}//adv_params
+  isam_cluster.config.connectionManager.connectionTimeout=20
+  isam_cluster.config.connectionManager.maxIdleTime=300
+  Remove isam_cluster.config.connectionManager.maxPoolSize
+  isam_cluster.config.connectionManager.minPoolSize=10</t>
+      </is>
+    </oc>
+    <nc r="E21" t="inlineStr">
+      <is>
+        <t>https://{appliance_hostname}/adv_params
+  isam_cluster.config.connectionManager.connectionTimeout=20
+  isam_cluster.config.connectionManager.maxIdleTime=300
+  Remove isam_cluster.config.connectionManager.maxPoolSize
+  isam_cluster.config.connectionManager.minPoolSize=10</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="150" sId="1" quotePrefix="1">
+    <oc r="E22" t="inlineStr">
+      <is>
+        <t>https://{appliance_hostname}//adv_params
+  isam_cluster.hvdb.connectionManager.connectionTimeout=20
+  isam_cluster.hvdb.connectionManager.maxIdleTime=300
+ Remove isam_cluster.hvdb.connectionManager.maxPoolSize
+  isam_cluster.hvdb.connectionManager.minPoolSize=10</t>
+      </is>
+    </oc>
+    <nc r="E22" t="inlineStr">
+      <is>
+        <t>https://{appliance_hostname}/adv_params
+  isam_cluster.hvdb.connectionManager.connectionTimeout=20
+  isam_cluster.hvdb.connectionManager.maxIdleTime=300
+ Remove isam_cluster.hvdb.connectionManager.maxPoolSize
+  isam_cluster.hvdb.connectionManager.minPoolSize=10</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="6" sId="1">
+    <oc r="D8" t="inlineStr">
+      <is>
+        <t>db2 create index ALIAS_SVC_ALIAS_IX on ALIAS_SVC_ALIASUSERPARTNER (ALIAS, PARTNER, ALIASTYPE, DOMAIN)</t>
+      </is>
+    </oc>
+    <nc r="D8" t="inlineStr">
+      <is>
+        <t>b</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_428EE15C_FAD5_428C_9A93_0F1E50589A6D_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Tuning!$A$1:$G$34</formula>
+    <oldFormula>Tuning!$A$1:$G$34</oldFormula>
+  </rdn>
+  <rcv guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog60.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="151" sId="1" ref="A20:XFD20" action="insertRow"/>
+  <rcc rId="152" sId="1">
+    <nc r="B20" t="inlineStr">
+      <is>
+        <t>Appliance</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="153" sId="1">
+    <nc r="C20" t="inlineStr">
+      <is>
+        <t>ISAM Cluster</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="154" sId="1">
+    <nc r="F20" t="inlineStr">
+      <is>
+        <t>Advanced Tuning</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="155" sId="1">
+    <nc r="G20">
+      <f>HYPERLINK("http://www.ibm.com/support/knowledgecenter/SSAW57_8.5.5/com.ibm.websphere.nd.doc/ae/udat_conpoolset.html", "http://www.ibm.com/support/knowledgecenter/SSAW57_8.5.5/com.ibm.websphere.nd.doc/ae/udat_conpoolset.html")</f>
+    </nc>
+  </rcc>
+  <rcc rId="156" sId="1">
+    <oc r="E19" t="inlineStr">
+      <is>
+        <t>isam_cluster.config.connectionManager.agedTimeout = 3600
+isam_cluster.config.connectionManager.reapTime = 180 
+isam_cluster.config.properties.blockingReadConnectionTimeout = 30
+isam_cluster.config.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+isam_cluster.config.properties.traceFile = db2jcc_trace_config.log
+isam_cluster.config.properties.traceLevel = -1</t>
+      </is>
+    </oc>
+    <nc r="E19" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">isam_cluster.config.connectionManager.agedTimeout = 3600
+isam_cluster.config.connectionManager.reapTime = 180 
+isam_cluster.config.properties.blockingReadConnectionTimeout = 30
+isam_cluster.config.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+isam_cluster.config.properties.traceFile = db2jcc_trace_config.log
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="5" tint="-0.249977111117893"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Remove isam_cluster.config.properties.traceLevel</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="157" sId="1">
+    <nc r="E20" t="inlineStr">
+      <is>
+        <t>isam_cluster.config.properties.traceLevel = -1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="158" sId="1" ref="A22:XFD22" action="insertRow"/>
+  <rcc rId="159" sId="1">
+    <nc r="B22" t="inlineStr">
+      <is>
+        <t>Appliance</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="160" sId="1">
+    <nc r="C22" t="inlineStr">
+      <is>
+        <t>ISAM Cluster</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="161" sId="1">
+    <nc r="D22" t="inlineStr">
+      <is>
+        <t>HVDB</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="162" sId="1" odxf="1" dxf="1">
+    <nc r="E22" t="inlineStr">
+      <is>
+        <t>isam_cluster.hvdb.connectionManager.agedTimeout = 3600
+isam_cluster.hvdb.connectionManager.reapTime = 180
+isam_cluster.hvdb.properties.blockingReadConnectionTimeout = 30
+isam_cluster.hvdb.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+isam_cluster.hvdb.properties.traceFile = db2jcc_trace.log
+isam_cluster.hvdb.properties.traceLevel = -1</t>
+      </is>
+    </nc>
+    <odxf>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
       <border outline="0">
         <left style="thin">
           <color theme="0" tint="-0.14996795556505021"/>
@@ -2540,78 +3806,20 @@
       </border>
     </ndxf>
   </rcc>
-  <rcc rId="99" sId="1">
-    <nc r="C32" t="inlineStr">
-      <is>
-        <t>Advancted Tuning Parameter</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="100" sId="1">
-    <nc r="D32" t="inlineStr">
-      <is>
-        <t>AAC/Federation JVM Persistent Connection Tuning</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="101" sId="1">
-    <nc r="E32" t="inlineStr">
-      <is>
-        <t>KEY: runtime_profile.liberty_option.httpOptions.maxKeepAliveRequests
-VALUE : 200</t>
-      </is>
-    </nc>
-  </rcc>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_844DABFE_41AA_4E75_934E_5D9962E1C069_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Tuning!$B$1:$H$42</formula>
-  </rdn>
-  <rcv guid="{844DABFE-41AA-4E75-934E-5D9962E1C069}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog43.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="103" sId="1" numFmtId="19">
-    <oc r="A1">
-      <v>43200</v>
-    </oc>
-    <nc r="A1">
-      <v>44074</v>
-    </nc>
-  </rcc>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_7A28EEE4_7CBB_426C_85A0_94861B6A80F8_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Tuning!$B$1:$H$42</formula>
-  </rdn>
-  <rcv guid="{7A28EEE4-7CBB-426C-85A0-94861B6A80F8}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog44.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="105" sId="1">
-    <oc r="E19" t="inlineStr">
-      <is>
-        <t>isam_cluster.config.connectionManager.agedTimeout = 3600
-isam_cluster.config.connectionManager.reapTime = 180 
-isam_cluster.config.properties.blockingReadConnectionTimeout = 30
-isam_cluster.config.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
-isam_cluster.config.properties.traceFile = db2jcc_trace_config.log
-isam_cluster.config.properties.traceLevel = -1</t>
-      </is>
-    </oc>
-    <nc r="E19" t="inlineStr">
-      <is>
-        <t>isam_cluster.config.connectionManager.agedTimeout = 3600
-isam_cluster.config.connectionManager.reapTime = 180 **** Do NOT apply to pre-903
-isam_cluster.config.properties.blockingReadConnectionTimeout = 30
-isam_cluster.config.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
-isam_cluster.config.properties.traceFile = db2jcc_trace_config.log
-isam_cluster.config.properties.traceLevel = -1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="106" sId="1">
-    <oc r="E20" t="inlineStr">
+  <rcc rId="163" sId="1">
+    <nc r="F22" t="inlineStr">
+      <is>
+        <t>Advanced Tuning</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="164" sId="1">
+    <nc r="G22">
+      <f>HYPERLINK("http://www.ibm.com/support/knowledgecenter/SSAW57_8.5.5/com.ibm.websphere.nd.doc/ae/udat_conpoolset.html", "http://www.ibm.com/support/knowledgecenter/SSAW57_8.5.5/com.ibm.websphere.nd.doc/ae/udat_conpoolset.html")</f>
+    </nc>
+  </rcc>
+  <rcc rId="165" sId="1">
+    <oc r="E21" t="inlineStr">
       <is>
         <t>isam_cluster.hvdb.connectionManager.agedTimeout = 3600
 isam_cluster.hvdb.connectionManager.reapTime = 180
@@ -2621,67 +3829,518 @@
 isam_cluster.hvdb.properties.traceLevel = -1</t>
       </is>
     </oc>
-    <nc r="E20" t="inlineStr">
+    <nc r="E21" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">isam_cluster.hvdb.connectionManager.agedTimeout = 3600
+isam_cluster.hvdb.connectionManager.reapTime = 180
+isam_cluster.hvdb.properties.blockingReadConnectionTimeout = 30
+isam_cluster.hvdb.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+isam_cluster.hvdb.properties.traceFile = db2jcc_trace.log
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="5" tint="-0.249977111117893"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Remove isam_cluster.hvdb.properties.traceLevel</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="166" sId="1">
+    <nc r="D20" t="inlineStr">
+      <is>
+        <t>ConfigDebug</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog61.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="167" sId="1">
+    <oc r="D22" t="inlineStr">
+      <is>
+        <t>HVDB</t>
+      </is>
+    </oc>
+    <nc r="D22" t="inlineStr">
+      <is>
+        <t>HVDB debug</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="168" sId="1">
+    <oc r="D20" t="inlineStr">
+      <is>
+        <t>ConfigDebug</t>
+      </is>
+    </oc>
+    <nc r="D20" t="inlineStr">
+      <is>
+        <t>Config debug</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="169" sId="1">
+    <oc r="E22" t="inlineStr">
       <is>
         <t>isam_cluster.hvdb.connectionManager.agedTimeout = 3600
-isam_cluster.hvdb.connectionManager.reapTime = 180 **** Do NOT apply to pre-903
+isam_cluster.hvdb.connectionManager.reapTime = 180
 isam_cluster.hvdb.properties.blockingReadConnectionTimeout = 30
 isam_cluster.hvdb.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
 isam_cluster.hvdb.properties.traceFile = db2jcc_trace.log
 isam_cluster.hvdb.properties.traceLevel = -1</t>
       </is>
-    </nc>
-  </rcc>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_992F61C4_A37A_4FB7_B015_E20A03B57544_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Tuning!$B$1:$H$42</formula>
+    </oc>
+    <nc r="E22" t="inlineStr">
+      <is>
+        <t>isam_cluster.hvdb.properties.traceLevel = -1</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog62.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="170" sId="1">
+    <oc r="C19" t="inlineStr">
+      <is>
+        <t>ISAM Cluster</t>
+      </is>
+    </oc>
+    <nc r="C19" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_340C4338_CA95_6642_AF8A_4D0D155F5409_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Tuning!$B$1:$H$45</formula>
+    <oldFormula>Tuning!$B$1:$H$45</oldFormula>
   </rdn>
-  <rcv guid="{992F61C4-A37A-4FB7-B015-E20A03B57544}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="5" sId="1">
-    <oc r="D22" t="inlineStr">
-      <is>
-        <t>Add additional helpful to the request.log(s)
-  [logging] request-log-format
-    %j %T %F %{PD-S-SESSION-ID}e %{PD-S-SESSION-ID}E %{X-FORWARED-FOR}I
-      X-FORWARDED-FOR may be change for different environments</t>
-      </is>
-    </oc>
-    <nc r="D22" t="inlineStr">
-      <is>
-        <t>Add additional helpful information for WebSEAL request.log(s)
-  [logging] request-log-format
-    %j %T %F %{PD-S-SESSION-ID}e %{PD-S-SESSION-ID}E %{X-FORWARED-FOR}i
-      X-FORWARDED-FOR may be change for different environments</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="6" sId="1">
-    <oc r="D8" t="inlineStr">
-      <is>
-        <t>db2 create index ALIAS_SVC_ALIAS_IX on ALIAS_SVC_ALIASUSERPARTNER (ALIAS, PARTNER, ALIASTYPE, DOMAIN)</t>
-      </is>
-    </oc>
-    <nc r="D8" t="inlineStr">
-      <is>
-        <t>b</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_428EE15C_FAD5_428C_9A93_0F1E50589A6D_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Tuning!$A$1:$G$34</formula>
-    <oldFormula>Tuning!$A$1:$G$34</oldFormula>
+  <rcv guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog63.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="E21" start="0" length="0">
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.249977111117893"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="172" sId="1" numFmtId="19">
+    <oc r="A1">
+      <v>44014</v>
+    </oc>
+    <nc r="A1">
+      <v>44440</v>
+    </nc>
+  </rcc>
+  <rcc rId="173" sId="1">
+    <oc r="E21" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">isam_cluster.hvdb.connectionManager.agedTimeout = 3600
+isam_cluster.hvdb.connectionManager.reapTime = 180
+isam_cluster.hvdb.properties.blockingReadConnectionTimeout = 30
+isam_cluster.hvdb.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+isam_cluster.hvdb.properties.traceFile = db2jcc_trace.log
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="5" tint="-0.249977111117893"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Remove isam_cluster.hvdb.properties.traceLevel</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="E21" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">isam_cluster.hvdb.connectionManager.agedTimeout = 3600s
+isam_cluster.hvdb.connectionManager.connectionTimeout=20s
+                                                                                                 ^^
+                                                                                                 Increase if using GeoIP DB
+isam_cluster.hvdb.connectionManager.enableSharingForDirectLookups = false
+isam_cluster.hvdb.connectionManager.maxIdleTime=300s
+If external:
+isam_cluster.hvdb.connectionManager.maxPoolSize=400
+If internal database:
+isam_cluster.hvdb.connectionManager.maxPoolSize=128
+isam_cluster.hvdb.connectionManager.minPoolSize=10
+isam_cluster.hvdb.connectionManager.purgePolicy = FailingConnectionOnly
+isam_cluster.hvdb.connectionManager.reapTime = 180s
+isam_cluster.hvdb.properties.blockingReadConnectionTimeout = 30s
+isam_cluster.hvdb.properties.traceFile = db2jcc_trace.log
+isam_cluster.hvdb.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="5" tint="-0.249977111117893"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Remove isam_cluster.hvdb.properties.traceLevel</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog64.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="174" sId="1">
+    <oc r="E21" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">isam_cluster.hvdb.connectionManager.agedTimeout = 3600s
+isam_cluster.hvdb.connectionManager.connectionTimeout=20s
+                                                                                                 ^^
+                                                                                                 Increase if using GeoIP DB
+isam_cluster.hvdb.connectionManager.enableSharingForDirectLookups = false
+isam_cluster.hvdb.connectionManager.maxIdleTime=300s
+If external:
+isam_cluster.hvdb.connectionManager.maxPoolSize=400
+If internal database:
+isam_cluster.hvdb.connectionManager.maxPoolSize=128
+isam_cluster.hvdb.connectionManager.minPoolSize=10
+isam_cluster.hvdb.connectionManager.purgePolicy = FailingConnectionOnly
+isam_cluster.hvdb.connectionManager.reapTime = 180s
+isam_cluster.hvdb.properties.blockingReadConnectionTimeout = 30s
+isam_cluster.hvdb.properties.traceFile = db2jcc_trace.log
+isam_cluster.hvdb.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="5" tint="-0.249977111117893"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Remove isam_cluster.hvdb.properties.traceLevel</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="E21" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">isam_cluster.hvdb.connectionManager.agedTimeout = 3600s
+isam_cluster.hvdb.connectionManager.connectionTimeout=20s
+                                                                                                 ^^
+                                                                                                 Increase if using GeoIP DB
+isam_cluster.hvdb.connectionManager.enableSharingForDirectLookups = false
+isam_cluster.hvdb.connectionManager.maxIdleTime=300s
+If external database:
+isam_cluster.hvdb.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                       where &lt;number&gt; is calculated ( &lt;External_database_maximum_connection&gt; / number_of_nodes)
+If internal database:
+isam_cluster.hvdb.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                        where &lt;number&gt; is calculated ( &lt;Maximum_of_128&gt; / number_of_nodes)
+isam_cluster.hvdb.connectionManager.minPoolSize=10
+isam_cluster.hvdb.connectionManager.purgePolicy = FailingConnectionOnly
+isam_cluster.hvdb.connectionManager.reapTime = 180s
+isam_cluster.hvdb.properties.blockingReadConnectionTimeout = 30s
+isam_cluster.hvdb.properties.traceFile = db2jcc_trace.log
+isam_cluster.hvdb.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="5" tint="-0.249977111117893"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Remove isam_cluster.hvdb.properties.traceLevel</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog65.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="175" sId="1">
+    <oc r="E21" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">isam_cluster.hvdb.connectionManager.agedTimeout = 3600s
+isam_cluster.hvdb.connectionManager.connectionTimeout=20s
+                                                                                                 ^^
+                                                                                                 Increase if using GeoIP DB
+isam_cluster.hvdb.connectionManager.enableSharingForDirectLookups = false
+isam_cluster.hvdb.connectionManager.maxIdleTime=300s
+If external database:
+isam_cluster.hvdb.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                       where &lt;number&gt; is calculated ( &lt;External_database_maximum_connection&gt; / number_of_nodes)
+If internal database:
+isam_cluster.hvdb.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                        where &lt;number&gt; is calculated ( &lt;Maximum_of_128&gt; / number_of_nodes)
+isam_cluster.hvdb.connectionManager.minPoolSize=10
+isam_cluster.hvdb.connectionManager.purgePolicy = FailingConnectionOnly
+isam_cluster.hvdb.connectionManager.reapTime = 180s
+isam_cluster.hvdb.properties.blockingReadConnectionTimeout = 30s
+isam_cluster.hvdb.properties.traceFile = db2jcc_trace.log
+isam_cluster.hvdb.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="5" tint="-0.249977111117893"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Remove isam_cluster.hvdb.properties.traceLevel</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="E21" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">isam_cluster.hvdb.connectionManager.agedTimeout = 3600s
+isam_cluster.hvdb.connectionManager.connectionTimeout=20s
+                                                                                                 ^^
+                                                                                                 Increase if using GeoIP DB
+isam_cluster.hvdb.connectionManager.enableSharingForDirectLookups = false
+isam_cluster.hvdb.connectionManager.maxIdleTime=300s
+If external database:
+isam_cluster.hvdb.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                       where &lt;number&gt; is calculated
+                                                                                         ( &lt;External_database_maximum_connections&gt; / number_of_nodes)
+                                                                                       Do NOT overcommit maximum connections
+If internal database:
+isam_cluster.hvdb.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                        where &lt;number&gt; is calculated ( &lt;Maximum_of_128&gt; / number_of_nodes)
+isam_cluster.hvdb.connectionManager.minPoolSize=10
+isam_cluster.hvdb.connectionManager.purgePolicy = FailingConnectionOnly
+isam_cluster.hvdb.connectionManager.reapTime = 180s
+isam_cluster.hvdb.properties.blockingReadConnectionTimeout = 30s
+isam_cluster.hvdb.properties.traceFile = db2jcc_trace.log
+isam_cluster.hvdb.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="5" tint="-0.249977111117893"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Remove isam_cluster.hvdb.properties.traceLevel</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="E19" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="176" sId="1">
+    <oc r="E19" t="inlineStr">
+      <is>
+        <t>isam_cluster.config.connectionManager.agedTimeout = 3600
+isam_cluster.config.connectionManager.reapTime = 180 
+isam_cluster.config.properties.blockingReadConnectionTimeout = 30
+isam_cluster.config.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+isam_cluster.config.properties.traceFile = db2jcc_trace_config.log
+Remove isam_cluster.config.properties.traceLevel</t>
+      </is>
+    </oc>
+    <nc r="E19" t="inlineStr">
+      <is>
+        <t>isam_cluster.config.connectionManager.agedTimeout = 3600s
+isam_cluster.config.connectionManager.connectionTimeout=20s
+                                                                                                  ^^
+                                                                                                  Increase if using GeoIP DB
+isam_cluster.config.connectionManager.enableSharingForDirectLookups = false
+isam_cluster.config.connectionManager.maxIdleTime=300s
+If external database:
+isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                         where &lt;number&gt; is calculated
+                                                                                           ( &lt;External_database_maximum_connections&gt; / number_of_nodes)
+                                                                                         Do NOT overcommit maximum connections
+If internal database:
+isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                         where &lt;number&gt; is calculated ( &lt;Maximum_of_128&gt; / number_of_nodes)
+isam_cluster.config.connectionManager.minPoolSize=10
+isam_cluster.config.connectionManager.purgePolicy = FailingConnectionOnly
+isam_cluster.config.connectionManager.reapTime = 180s
+isam_cluster.config.properties.blockingReadConnectionTimeout = 30s
+isam_cluster.config.properties.traceFile = db2jcc_trace.log
+isam_cluster.config.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+Remove isam_cluster.config.properties.traceLevel</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog66.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_340C4338_CA95_6642_AF8A_4D0D155F5409_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Tuning!$B$1:$H$45</formula>
+    <oldFormula>Tuning!$B$1:$H$45</oldFormula>
   </rdn>
-  <rcv guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" action="add"/>
+  <rcv guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog67.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="178" sId="1">
+    <oc r="E19" t="inlineStr">
+      <is>
+        <t>isam_cluster.config.connectionManager.agedTimeout = 3600s
+isam_cluster.config.connectionManager.connectionTimeout=20s
+                                                                                                  ^^
+                                                                                                  Increase if using GeoIP DB
+isam_cluster.config.connectionManager.enableSharingForDirectLookups = false
+isam_cluster.config.connectionManager.maxIdleTime=300s
+If external database:
+isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                         where &lt;number&gt; is calculated
+                                                                                           ( &lt;External_database_maximum_connections&gt; / number_of_nodes)
+                                                                                         Do NOT overcommit maximum connections
+If internal database:
+isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                         where &lt;number&gt; is calculated ( &lt;Maximum_of_128&gt; / number_of_nodes)
+isam_cluster.config.connectionManager.minPoolSize=10
+isam_cluster.config.connectionManager.purgePolicy = FailingConnectionOnly
+isam_cluster.config.connectionManager.reapTime = 180s
+isam_cluster.config.properties.blockingReadConnectionTimeout = 30s
+isam_cluster.config.properties.traceFile = db2jcc_trace.log
+isam_cluster.config.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+Remove isam_cluster.config.properties.traceLevel</t>
+      </is>
+    </oc>
+    <nc r="E19" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">isam_cluster.config.connectionManager.agedTimeout = 3600s
+isam_cluster.config.connectionManager.connectionTimeout=20s
+                                                                                                  ^^
+                                                                                                  Increase if using GeoIP DB
+isam_cluster.config.connectionManager.enableSharingForDirectLookups = false
+isam_cluster.config.connectionManager.maxIdleTime=300s
+If external database:
+isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                         where &lt;number&gt; is calculated
+                                                                                           ( &lt;External_database_maximum_connections&gt; / number_of_nodes)
+                                                                                         Do NOT overcommit maximum connections
+If internal database:
+isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                         where &lt;number&gt; is calculated ( &lt;Maximum_of_128&gt; / number_of_nodes)
+isam_cluster.config.connectionManager.minPoolSize=10
+isam_cluster.config.connectionManager.purgePolicy = FailingConnectionOnly
+isam_cluster.config.connectionManager.reapTime = 180s
+isam_cluster.config.properties.blockingReadConnectionTimeout = 30s
+isam_cluster.config.properties.traceFile = db2jcc_trace.log
+isam_cluster.config.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFC00000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Remove isam_cluster.config.properties.traceLevel</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog68.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="179" sId="1">
+    <oc r="E4" t="inlineStr">
+      <is>
+        <t>Best Practices for Performance Tuning of Latency-Sensitive
+BIOS Power Management settings
+Sufficient VMWare vmkernel scheduler CPU resources
+InterruptThrottleRate
+ethernetX.coalescingScheme
+Do not overcommit vCPUs as compared to pCPUs
+Do not overcommit VMWare physical memory</t>
+      </is>
+    </oc>
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t>Sufficient VMWare vmkernel scheduler CPU resources
+Best Practices for Performance Tuning of Latency-Sensitive
+BIOS Power Management settings
+InterruptThrottleRate
+ethernetX.coalescingScheme
+Do not overcommit vCPUs as compared to pCPUs
+Do not overcommit VMWare physical memory</t>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -2777,9 +4436,24 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{359378B0-8ACA-4580-99AF-33B7E0F951E0}" name="DANIEL Comeau" id="-207621671" dateTime="2021-03-23T13:44:48"/>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="16">
+  <userInfo guid="{5EBCED96-2F81-4BB0-83BF-42F752F070A1}" name="whannon" id="-336981808" dateTime="2017-10-13T19:36:07"/>
+  <userInfo guid="{0FD5F71C-7ADA-4302-BC35-378762EAA384}" name="whannon" id="-336930999" dateTime="2017-11-08T12:53:42"/>
+  <userInfo guid="{9AE413E7-4820-4A67-95D2-81FA9633AFC5}" name="whannon" id="-336954853" dateTime="2018-02-08T14:52:55"/>
+  <userInfo guid="{B14E97BB-6730-456D-B1F3-A4D357F083EE}" name="whannon" id="-336972192" dateTime="2018-02-12T21:34:12"/>
+  <userInfo guid="{ADF04741-1686-4BE7-9728-B57B08F93CC4}" name="whannon" id="-336940639" dateTime="2018-02-28T10:47:28"/>
+  <userInfo guid="{3DBE78C6-56CC-4FF7-A5E8-CB2E7C8249E0}" name="whannon" id="-336947481" dateTime="2018-04-10T11:55:47"/>
+  <userInfo guid="{3DBE78C6-56CC-4FF7-A5E8-CB2E7C8249E0}" name="whannon" id="-336962689" dateTime="2018-04-26T09:47:15"/>
+  <userInfo guid="{61A19304-1887-4212-B9AE-D2FF9E9FA4FB}" name="whannon" id="-336972353" dateTime="2018-06-08T11:04:40"/>
+  <userInfo guid="{CFCA9B82-CB12-4EFD-819C-CBB16F28EF7A}" name="whannon" id="-336956963" dateTime="2018-07-11T17:05:03"/>
+  <userInfo guid="{473E4B9E-96C0-44EF-A028-1090C59E0915}" name="whannon" id="-336938112" dateTime="2018-08-10T08:47:54"/>
+  <userInfo guid="{473E4B9E-96C0-44EF-A028-1090C59E0915}" name="whannon" id="-336953956" dateTime="2018-08-22T05:48:55"/>
+  <userInfo guid="{473E4B9E-96C0-44EF-A028-1090C59E0915}" name="William Hannon Jr" id="-1404439161" dateTime="2019-10-08T13:55:15"/>
+  <userInfo guid="{B2DBF983-6DAB-6F40-A024-447E238D6676}" name="William Hannon Jr" id="-1404499576" dateTime="2020-05-13T14:13:33"/>
+  <userInfo guid="{B2DBF983-6DAB-6F40-A024-447E238D6676}" name="William Hannon Jr" id="-1404482469" dateTime="2020-06-08T12:14:42"/>
+  <userInfo guid="{AC9CE79B-8C52-1744-B28F-6E168B04899E}" name="William Hannon Jr" id="-1404494652" dateTime="2021-04-19T11:42:50"/>
+  <userInfo guid="{1E3E9BA8-1B5A-3044-A730-F5D4537C6D24}" name="William Hannon Jr" id="-1404469762" dateTime="2021-09-01T11:33:58"/>
 </users>
 </file>
 
@@ -3105,31 +4779,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="114.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="114.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21">
-        <v>44074</v>
+        <v>44440</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -3144,25 +4818,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="49" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G2" s="13" t="str">
         <f>HYPERLINK("https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.4/com.ibm.isam.doc/admin/task/tsk_install_virtual_appl_vm.html", "https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.4/com.ibm.isam.doc/admin/task/tsk_install_virtual_appl_vm.html")</f>
@@ -3170,19 +4844,19 @@
       </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="76" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G3" s="13" t="str">
         <f>HYPERLINK("https://kb.vmware.com/s/article/1027511","https://kb.vmware.com/s/article/1027511")</f>
@@ -3190,19 +4864,19 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="121" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="G4" s="13" t="str">
         <f>HYPERLINK("https://www.vmware.com/content/dam/digitalmarketing/vmware/en/pdf/techpaper/vmw-tuning-latency-sensitive-workloads-white-paper.pdf", "https://www.vmware.com/content/dam/digitalmarketing/vmware/en/pdf/techpaper/vmw-tuning-latency-sensitive-workloads-white-paper.pdf")</f>
@@ -3210,17 +4884,17 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G5" s="13" t="str">
         <f>HYPERLINK("https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.4/com.ibm.isam.doc/admin/task/tsk_install_virtual_appl_rhev.html", "https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.4/com.ibm.isam.doc/admin/task/tsk_install_virtual_appl_rhev.html")</f>
@@ -3228,20 +4902,20 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="76" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G6" s="13" t="str">
         <f>HYPERLINK("https://www-01.ibm.com/support/docview.wss?uid=swg21960611", "https://www-01.ibm.com/support/docview.wss?uid=swg21960611")</f>
@@ -3249,115 +4923,115 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="100.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="106" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="13"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="91" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="13"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="46" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="13"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="76" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="13"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="105" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="180" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="5" t="s">
         <v>4</v>
@@ -3367,11 +5041,11 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3379,16 +5053,16 @@
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
@@ -3396,16 +5070,16 @@
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
@@ -3413,422 +5087,467 @@
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" ht="135" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="357" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G19" s="14" t="str">
         <f>HYPERLINK("http://www.ibm.com/support/knowledgecenter/SSAW57_8.5.5/com.ibm.websphere.nd.doc/ae/udat_conpoolset.html", "http://www.ibm.com/support/knowledgecenter/SSAW57_8.5.5/com.ibm.websphere.nd.doc/ae/udat_conpoolset.html")</f>
         <v>http://www.ibm.com/support/knowledgecenter/SSAW57_8.5.5/com.ibm.websphere.nd.doc/ae/udat_conpoolset.html</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="48" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G20" s="14" t="str">
         <f>HYPERLINK("http://www.ibm.com/support/knowledgecenter/SSAW57_8.5.5/com.ibm.websphere.nd.doc/ae/udat_conpoolset.html", "http://www.ibm.com/support/knowledgecenter/SSAW57_8.5.5/com.ibm.websphere.nd.doc/ae/udat_conpoolset.html")</f>
         <v>http://www.ibm.com/support/knowledgecenter/SSAW57_8.5.5/com.ibm.websphere.nd.doc/ae/udat_conpoolset.html</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="357" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>70</v>
+        <v>4</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>109</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="14"/>
+        <v>33</v>
+      </c>
+      <c r="G21" s="14" t="str">
+        <f>HYPERLINK("http://www.ibm.com/support/knowledgecenter/SSAW57_8.5.5/com.ibm.websphere.nd.doc/ae/udat_conpoolset.html", "http://www.ibm.com/support/knowledgecenter/SSAW57_8.5.5/com.ibm.websphere.nd.doc/ae/udat_conpoolset.html")</f>
+        <v>http://www.ibm.com/support/knowledgecenter/SSAW57_8.5.5/com.ibm.websphere.nd.doc/ae/udat_conpoolset.html</v>
+      </c>
     </row>
-    <row r="22" spans="2:8" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="48" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="14" t="str">
+        <f>HYPERLINK("http://www.ibm.com/support/knowledgecenter/SSAW57_8.5.5/com.ibm.websphere.nd.doc/ae/udat_conpoolset.html", "http://www.ibm.com/support/knowledgecenter/SSAW57_8.5.5/com.ibm.websphere.nd.doc/ae/udat_conpoolset.html")</f>
+        <v>http://www.ibm.com/support/knowledgecenter/SSAW57_8.5.5/com.ibm.websphere.nd.doc/ae/udat_conpoolset.html</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="91" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="2:8" ht="91" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="14"/>
+      <c r="E24" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="14"/>
     </row>
-    <row r="23" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="1" t="s">
+    <row r="25" spans="2:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="76" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" ht="72" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="12" t="str">
+      <c r="G26" s="12" t="str">
         <f>HYPERLINK("https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.0/com.ibm.isam.doc_9.0/wrp_config/task/tsk_config_nonsticky_failover_soln.html", "https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.0/com.ibm.isam.doc_9.0/wrp_config/task/tsk_config_nonsticky_failover_soln.html")</f>
         <v>https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.0/com.ibm.isam.doc_9.0/wrp_config/task/tsk_config_nonsticky_failover_soln.html</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="12" t="str">
+    <row r="27" spans="2:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="12" t="str">
         <f>HYPERLINK("https://www.ibm.com/support/knowledgecenter/SSPREK_7.0.0/com.ibm.isam.doc_70/ameb_webseal_guide/reference/ref_retain_eai_sess.html", "https://www.ibm.com/support/knowledgecenter/SSPREK_7.0.0/com.ibm.isam.doc_70/ameb_webseal_guide/reference/ref_retain_eai_sess.html")</f>
         <v>https://www.ibm.com/support/knowledgecenter/SSPREK_7.0.0/com.ibm.isam.doc_70/ameb_webseal_guide/reference/ref_retain_eai_sess.html</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>77</v>
+    <row r="28" spans="2:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>10</v>
+    <row r="29" spans="2:8" ht="60" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>81</v>
+    <row r="30" spans="2:8" ht="90" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="12" t="str">
+    <row r="31" spans="2:8" ht="90" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="46" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="12" t="str">
+        <f>HYPERLINK("https://web.mit.edu/kerberos/krb5-latest/doc/basic/rcache_def.html","https://web.mit.edu/kerberos/krb5-latest/doc/basic/rcache_def.html")</f>
+        <v>https://web.mit.edu/kerberos/krb5-latest/doc/basic/rcache_def.html</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="12" t="str">
         <f>HYPERLINK("https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.3/com.ibm.isam.doc/productoverview/concept/whats_new.html ", "https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.3/com.ibm.isam.doc/productoverview/concept/whats_new.html ")</f>
         <v xml:space="preserve">https://www.ibm.com/support/knowledgecenter/en/SSPREK_9.0.3/com.ibm.isam.doc/productoverview/concept/whats_new.html </v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="12"/>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="31" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="1" t="s">
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D36" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E36" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="D37" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>12</v>
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="B37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>39</v>
+      <c r="D38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="D40" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="B42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="B43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="105" x14ac:dyDescent="0.15">
+      <c r="B44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>10</v>
+      <c r="H44" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>19</v>
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="B45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H42" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:H45" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
-    <customSheetView guid="{992F61C4-A37A-4FB7-B015-E20A03B57544}" showAutoFilter="1">
-      <pane xSplit="4" ySplit="1" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+    <customSheetView guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}" showAutoFilter="1">
+      <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="B1:H42" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-    </customSheetView>
-    <customSheetView guid="{844DABFE-41AA-4E75-934E-5D9962E1C069}" showAutoFilter="1">
-      <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="B1:H42" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+      <autoFilter ref="B1:H45" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" showAutoFilter="1">
       <pane xSplit="4" ySplit="1" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="B1:H40" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
-    </customSheetView>
-    <customSheetView guid="{7A28EEE4-7CBB-426C-85A0-94861B6A80F8}" showAutoFilter="1">
-      <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="B1:H42" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="B1:H40" xr:uid="{80E9F918-3307-CC44-8C46-323B76ED5821}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3840,14 +5559,14 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="100.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="100.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3861,42 +5580,42 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="43.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="31" thickTop="1" x14ac:dyDescent="0.15">
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -3905,15 +5624,15 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -3922,24 +5641,20 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="D7" s="20" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{992F61C4-A37A-4FB7-B015-E20A03B57544}" state="hidden">
-      <selection activeCell="D8" sqref="D8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{844DABFE-41AA-4E75-934E-5D9962E1C069}" state="hidden">
+    <customSheetView guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}" state="hidden">
       <selection activeCell="D8" sqref="D8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -3947,10 +5662,6 @@
       <selection activeCell="D8" sqref="D8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{7A28EEE4-7CBB-426C-85A0-94861B6A80F8}" state="hidden">
-      <selection activeCell="D8" sqref="D8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3961,16 +5672,16 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="str">
         <f>HYPERLINK("https://github.com/IBM-Security/isam-support/raw/master/tuning/ISAM_Tuning.xlsx", "For latest updates 
 Click here")</f>
@@ -3978,16 +5689,12 @@
 Click here</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{992F61C4-A37A-4FB7-B015-E20A03B57544}">
-      <selection activeCell="B1" sqref="B1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{844DABFE-41AA-4E75-934E-5D9962E1C069}">
+    <customSheetView guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -3995,10 +5702,6 @@
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{7A28EEE4-7CBB-426C-85A0-94861B6A80F8}">
-      <selection activeCell="B1" sqref="B1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tuning/ISAM_Tuning.xlsx
+++ b/tuning/ISAM_Tuning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whannon@us.ibm.com/documentation/Am/Performance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{D3D91B5A-9E12-5349-87B7-9E89FF7074D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{765AB025-E059-A144-A17B-5ED9AD31E7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="whannon - Personal View" guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="962" activeSheetId="1"/>
     <customWorkbookView name="William Hannon Jr - Personal View" guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}" mergeInterval="0" personalView="1" maximized="1" yWindow="23" windowWidth="1680" windowHeight="1027" activeSheetId="1"/>
-    <customWorkbookView name="whannon - Personal View" guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="962" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -4453,7 +4453,7 @@
   <userInfo guid="{B2DBF983-6DAB-6F40-A024-447E238D6676}" name="William Hannon Jr" id="-1404499576" dateTime="2020-05-13T14:13:33"/>
   <userInfo guid="{B2DBF983-6DAB-6F40-A024-447E238D6676}" name="William Hannon Jr" id="-1404482469" dateTime="2020-06-08T12:14:42"/>
   <userInfo guid="{AC9CE79B-8C52-1744-B28F-6E168B04899E}" name="William Hannon Jr" id="-1404494652" dateTime="2021-04-19T11:42:50"/>
-  <userInfo guid="{1E3E9BA8-1B5A-3044-A730-F5D4537C6D24}" name="William Hannon Jr" id="-1404469762" dateTime="2021-09-01T11:33:58"/>
+  <userInfo guid="{1E3E9BA8-1B5A-3044-A730-F5D4537C6D24}" name="William Hannon Jr" id="-1404447978" dateTime="2021-09-01T16:19:23"/>
 </users>
 </file>
 
@@ -4782,7 +4782,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -5531,19 +5531,19 @@
   </sheetData>
   <autoFilter ref="B1:H45" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
+    <customSheetView guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" showAutoFilter="1">
+      <pane xSplit="4" ySplit="1" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="B1:H40" xr:uid="{0B316F08-FC1A-6F45-9C16-97F971AD0F93}"/>
+    </customSheetView>
     <customSheetView guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}" showAutoFilter="1">
       <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="B1:H45" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-    </customSheetView>
-    <customSheetView guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" showAutoFilter="1">
-      <pane xSplit="4" ySplit="1" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="B1:H40" xr:uid="{80E9F918-3307-CC44-8C46-323B76ED5821}"/>
+      <autoFilter ref="B1:H45" xr:uid="{70F26253-AEA8-ED47-A9B9-D7445E4B6692}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5654,11 +5654,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}" state="hidden">
+    <customSheetView guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" state="hidden">
       <selection activeCell="D8" sqref="D8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" state="hidden">
+    <customSheetView guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}" state="hidden">
       <selection activeCell="D8" sqref="D8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -5672,7 +5672,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5694,11 +5694,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}">
+    <customSheetView guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}">
+    <customSheetView guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>

--- a/tuning/ISAM_Tuning.xlsx
+++ b/tuning/ISAM_Tuning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whannon@us.ibm.com/documentation/Am/Performance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whannon/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{765AB025-E059-A144-A17B-5ED9AD31E7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{91095BEE-7BEC-774C-9ED1-F17AD625EE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tuning" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="William Hannon Jr - Personal View" guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}" mergeInterval="0" personalView="1" maximized="1" yWindow="23" windowWidth="1680" windowHeight="1027" activeSheetId="1"/>
     <customWorkbookView name="whannon - Personal View" guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="962" activeSheetId="1"/>
-    <customWorkbookView name="William Hannon Jr - Personal View" guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}" mergeInterval="0" personalView="1" maximized="1" yWindow="23" windowWidth="1680" windowHeight="1027" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -524,6 +524,15 @@
     </r>
   </si>
   <si>
+    <t>Sufficient VMWare vmkernel scheduler CPU resources
+Best Practices for Performance Tuning of Latency-Sensitive
+BIOS Power Management settings
+InterruptThrottleRate
+ethernetX.coalescingScheme
+Do not overcommit vCPUs as compared to pCPUs
+Do not overcommit VMWare physical memory</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">isam_cluster.config.connectionManager.agedTimeout = 3600s
 isam_cluster.config.connectionManager.connectionTimeout=20s
@@ -534,11 +543,12 @@
 If external database:
 isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
                                                                                          where &lt;number&gt; is calculated
-                                                                                           ( &lt;External_database_maximum_connections&gt; / number_of_nodes)
+                                                                                           ( &lt;External_database_maximum_connections&gt; / ( number_of_nodes )
                                                                                          Do NOT overcommit maximum connections
 If internal database:
 isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
-                                                                                         where &lt;number&gt; is calculated ( &lt;Maximum_of_128&gt; / number_of_nodes)
+                                                                                         where &lt;number&gt; is calculated ( 125 (or lower if impacting LMI) )
+                                                                                         Do NOT overcommit maximum connections
 isam_cluster.config.connectionManager.minPoolSize=10
 isam_cluster.config.connectionManager.purgePolicy = FailingConnectionOnly
 isam_cluster.config.connectionManager.reapTime = 180s
@@ -556,15 +566,6 @@
       </rPr>
       <t>Remove isam_cluster.config.properties.traceLevel</t>
     </r>
-  </si>
-  <si>
-    <t>Sufficient VMWare vmkernel scheduler CPU resources
-Best Practices for Performance Tuning of Latency-Sensitive
-BIOS Power Management settings
-InterruptThrottleRate
-ethernetX.coalescingScheme
-Do not overcommit vCPUs as compared to pCPUs
-Do not overcommit VMWare physical memory</t>
   </si>
 </sst>
 </file>
@@ -757,7 +758,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -766,7 +767,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -799,7 +800,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -837,7 +838,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1E3E9BA8-1B5A-3044-A730-F5D4537C6D24}" diskRevisions="1" revisionId="179" version="68" preserveHistory="9999">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BA9F6A5A-C856-C141-A363-40E3365320A6}" diskRevisions="1" revisionId="183" version="72" preserveHistory="9999">
   <header guid="{B2AED240-CB75-45B8-8B56-2AD4B49A6DD4}" dateTime="2017-10-13T19:36:07" maxSheetId="3" userName="whannon" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -1295,6 +1296,34 @@
     </sheetIdMap>
   </header>
   <header guid="{1E3E9BA8-1B5A-3044-A730-F5D4537C6D24}" dateTime="2021-09-01T14:40:49" maxSheetId="4" userName="William Hannon Jr" r:id="rId68" minRId="179">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9D2DFEB7-B38B-8E42-B519-582DE0AE2BB8}" dateTime="2025-02-26T11:48:39" maxSheetId="4" userName="William Hannon Jr" r:id="rId69" minRId="180">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4CADD712-2963-764B-8FFC-9D3CD5D5168D}" dateTime="2025-02-26T12:20:29" maxSheetId="4" userName="William Hannon Jr" r:id="rId70" minRId="181">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A6A44389-A359-E54A-8E48-E7E1C9B7464B}" dateTime="2025-02-26T14:50:51" maxSheetId="4" userName="William Hannon Jr" r:id="rId71" minRId="182">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BA9F6A5A-C856-C141-A363-40E3365320A6}" dateTime="2025-02-26T15:09:31" maxSheetId="4" userName="William Hannon Jr" r:id="rId72" minRId="183">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -4344,6 +4373,86 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog69.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="180" sId="1">
+    <oc r="E19" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">isam_cluster.config.connectionManager.agedTimeout = 3600s
+isam_cluster.config.connectionManager.connectionTimeout=20s
+                                                                                                  ^^
+                                                                                                  Increase if using GeoIP DB
+isam_cluster.config.connectionManager.enableSharingForDirectLookups = false
+isam_cluster.config.connectionManager.maxIdleTime=300s
+If external database:
+isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                         where &lt;number&gt; is calculated
+                                                                                           ( &lt;External_database_maximum_connections&gt; / number_of_nodes)
+                                                                                         Do NOT overcommit maximum connections
+If internal database:
+isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                         where &lt;number&gt; is calculated ( &lt;Maximum_of_128&gt; / number_of_nodes)
+isam_cluster.config.connectionManager.minPoolSize=10
+isam_cluster.config.connectionManager.purgePolicy = FailingConnectionOnly
+isam_cluster.config.connectionManager.reapTime = 180s
+isam_cluster.config.properties.blockingReadConnectionTimeout = 30s
+isam_cluster.config.properties.traceFile = db2jcc_trace.log
+isam_cluster.config.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFC00000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Remove isam_cluster.config.properties.traceLevel</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="E19" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">isam_cluster.config.connectionManager.agedTimeout = 3600s
+isam_cluster.config.connectionManager.connectionTimeout=20s
+                                                                                                  ^^
+                                                                                                  Increase if using GeoIP DB
+isam_cluster.config.connectionManager.enableSharingForDirectLookups = false
+isam_cluster.config.connectionManager.maxIdleTime=300s
+If external database:
+isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                         where &lt;number&gt; is calculated
+                                                                                           ( &lt;External_database_maximum_connections&gt; / number_of_nodes)
+                                                                                         Do NOT overcommit maximum connections
+If internal database:
+isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                         where &lt;number&gt; is calculated ( &lt;Maximum_of_128&gt; / number_of_connections_required)
+                                                                                         Do NOT overcommit maximum connections
+isam_cluster.config.connectionManager.minPoolSize=10
+isam_cluster.config.connectionManager.purgePolicy = FailingConnectionOnly
+isam_cluster.config.connectionManager.reapTime = 180s
+isam_cluster.config.properties.blockingReadConnectionTimeout = 30s
+isam_cluster.config.properties.traceFile = db2jcc_trace.log
+isam_cluster.config.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFC00000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Remove isam_cluster.config.properties.traceLevel</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rrc rId="8" sId="2" eol="1" ref="A7:XFD7" action="insertRow"/>
@@ -4387,6 +4496,249 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog70.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="181" sId="1">
+    <oc r="E19" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">isam_cluster.config.connectionManager.agedTimeout = 3600s
+isam_cluster.config.connectionManager.connectionTimeout=20s
+                                                                                                  ^^
+                                                                                                  Increase if using GeoIP DB
+isam_cluster.config.connectionManager.enableSharingForDirectLookups = false
+isam_cluster.config.connectionManager.maxIdleTime=300s
+If external database:
+isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                         where &lt;number&gt; is calculated
+                                                                                           ( &lt;External_database_maximum_connections&gt; / number_of_nodes)
+                                                                                         Do NOT overcommit maximum connections
+If internal database:
+isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                         where &lt;number&gt; is calculated ( &lt;Maximum_of_128&gt; / number_of_connections_required)
+                                                                                         Do NOT overcommit maximum connections
+isam_cluster.config.connectionManager.minPoolSize=10
+isam_cluster.config.connectionManager.purgePolicy = FailingConnectionOnly
+isam_cluster.config.connectionManager.reapTime = 180s
+isam_cluster.config.properties.blockingReadConnectionTimeout = 30s
+isam_cluster.config.properties.traceFile = db2jcc_trace.log
+isam_cluster.config.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFC00000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Remove isam_cluster.config.properties.traceLevel</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="E19" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">isam_cluster.config.connectionManager.agedTimeout = 3600s
+isam_cluster.config.connectionManager.connectionTimeout=20s
+                                                                                                  ^^
+                                                                                                  Increase if using GeoIP DB
+isam_cluster.config.connectionManager.enableSharingForDirectLookups = false
+isam_cluster.config.connectionManager.maxIdleTime=300s
+If external database:
+isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                         where &lt;number&gt; is calculated
+                                                                                           ( &lt;External_database_maximum_connections&gt; / number_of_nodes)
+                                                                                         Do NOT overcommit maximum connections ... monitor to avoid overcomiiting
+If internal database:
+isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                         where &lt;number&gt; is calculated ( &lt;Maximum_of_128&gt; / number_of_connections_required)
+                                                                                         Do NOT overcommit maximum connections ... monitor to avoid overcommiting
+isam_cluster.config.connectionManager.minPoolSize=10
+isam_cluster.config.connectionManager.purgePolicy = FailingConnectionOnly
+isam_cluster.config.connectionManager.reapTime = 180s
+isam_cluster.config.properties.blockingReadConnectionTimeout = 30s
+isam_cluster.config.properties.traceFile = db2jcc_trace.log
+isam_cluster.config.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFC00000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Remove isam_cluster.config.properties.traceLevel</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog71.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="182" sId="1">
+    <oc r="E19" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">isam_cluster.config.connectionManager.agedTimeout = 3600s
+isam_cluster.config.connectionManager.connectionTimeout=20s
+                                                                                                  ^^
+                                                                                                  Increase if using GeoIP DB
+isam_cluster.config.connectionManager.enableSharingForDirectLookups = false
+isam_cluster.config.connectionManager.maxIdleTime=300s
+If external database:
+isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                         where &lt;number&gt; is calculated
+                                                                                           ( &lt;External_database_maximum_connections&gt; / number_of_nodes)
+                                                                                         Do NOT overcommit maximum connections ... monitor to avoid overcomiiting
+If internal database:
+isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                         where &lt;number&gt; is calculated ( &lt;Maximum_of_128&gt; / number_of_connections_required)
+                                                                                         Do NOT overcommit maximum connections ... monitor to avoid overcommiting
+isam_cluster.config.connectionManager.minPoolSize=10
+isam_cluster.config.connectionManager.purgePolicy = FailingConnectionOnly
+isam_cluster.config.connectionManager.reapTime = 180s
+isam_cluster.config.properties.blockingReadConnectionTimeout = 30s
+isam_cluster.config.properties.traceFile = db2jcc_trace.log
+isam_cluster.config.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFC00000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Remove isam_cluster.config.properties.traceLevel</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="E19" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">isam_cluster.config.connectionManager.agedTimeout = 3600s
+isam_cluster.config.connectionManager.connectionTimeout=20s
+                                                                                                  ^^
+                                                                                                  Increase if using GeoIP DB
+isam_cluster.config.connectionManager.enableSharingForDirectLookups = false
+isam_cluster.config.connectionManager.maxIdleTime=300s
+If external database:
+isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                         where &lt;number&gt; is calculated
+                                                                                           ( &lt;External_database_maximum_connections&gt; / ( number_of_nodes * number_of_unique_datasource_ids) )
+                                                                                         Do NOT overcommit maximum connections
+If internal database:
+isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                         where &lt;number&gt; is calculated ( &lt;Maximum_of_128&gt; / number_of_unique_datasource_ids)
+                                                                                         Do NOT overcommit maximum connections
+isam_cluster.config.connectionManager.minPoolSize=10
+isam_cluster.config.connectionManager.purgePolicy = FailingConnectionOnly
+isam_cluster.config.connectionManager.reapTime = 180s
+isam_cluster.config.properties.blockingReadConnectionTimeout = 30s
+isam_cluster.config.properties.traceFile = db2jcc_trace.log
+isam_cluster.config.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFC00000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Remove isam_cluster.config.properties.traceLevel</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog72.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="183" sId="1">
+    <oc r="E19" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">isam_cluster.config.connectionManager.agedTimeout = 3600s
+isam_cluster.config.connectionManager.connectionTimeout=20s
+                                                                                                  ^^
+                                                                                                  Increase if using GeoIP DB
+isam_cluster.config.connectionManager.enableSharingForDirectLookups = false
+isam_cluster.config.connectionManager.maxIdleTime=300s
+If external database:
+isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                         where &lt;number&gt; is calculated
+                                                                                           ( &lt;External_database_maximum_connections&gt; / ( number_of_nodes * number_of_unique_datasource_ids) )
+                                                                                         Do NOT overcommit maximum connections
+If internal database:
+isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                         where &lt;number&gt; is calculated ( &lt;Maximum_of_128&gt; / number_of_unique_datasource_ids)
+                                                                                         Do NOT overcommit maximum connections
+isam_cluster.config.connectionManager.minPoolSize=10
+isam_cluster.config.connectionManager.purgePolicy = FailingConnectionOnly
+isam_cluster.config.connectionManager.reapTime = 180s
+isam_cluster.config.properties.blockingReadConnectionTimeout = 30s
+isam_cluster.config.properties.traceFile = db2jcc_trace.log
+isam_cluster.config.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFC00000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Remove isam_cluster.config.properties.traceLevel</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="E19" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">isam_cluster.config.connectionManager.agedTimeout = 3600s
+isam_cluster.config.connectionManager.connectionTimeout=20s
+                                                                                                  ^^
+                                                                                                  Increase if using GeoIP DB
+isam_cluster.config.connectionManager.enableSharingForDirectLookups = false
+isam_cluster.config.connectionManager.maxIdleTime=300s
+If external database:
+isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                         where &lt;number&gt; is calculated
+                                                                                           ( &lt;External_database_maximum_connections&gt; / ( number_of_nodes )
+                                                                                         Do NOT overcommit maximum connections
+If internal database:
+isam_cluster.config.connectionManager.maxPoolSize= &lt;number&gt;
+                                                                                         where &lt;number&gt; is calculated ( 125 (or lower if impacting LMI) )
+                                                                                         Do NOT overcommit maximum connections
+isam_cluster.config.connectionManager.minPoolSize=10
+isam_cluster.config.connectionManager.purgePolicy = FailingConnectionOnly
+isam_cluster.config.connectionManager.reapTime = 180s
+isam_cluster.config.properties.blockingReadConnectionTimeout = 30s
+isam_cluster.config.properties.traceFile = db2jcc_trace.log
+isam_cluster.config.properties.traceDirectory = /opt/ibm/wlp/usr/servers/default/logs/
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFC00000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Remove isam_cluster.config.properties.traceLevel</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="10" sId="1">
@@ -4436,8 +4788,8 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="16">
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="17">
   <userInfo guid="{5EBCED96-2F81-4BB0-83BF-42F752F070A1}" name="whannon" id="-336981808" dateTime="2017-10-13T19:36:07"/>
   <userInfo guid="{0FD5F71C-7ADA-4302-BC35-378762EAA384}" name="whannon" id="-336930999" dateTime="2017-11-08T12:53:42"/>
   <userInfo guid="{9AE413E7-4820-4A67-95D2-81FA9633AFC5}" name="whannon" id="-336954853" dateTime="2018-02-08T14:52:55"/>
@@ -4454,13 +4806,14 @@
   <userInfo guid="{B2DBF983-6DAB-6F40-A024-447E238D6676}" name="William Hannon Jr" id="-1404482469" dateTime="2020-06-08T12:14:42"/>
   <userInfo guid="{AC9CE79B-8C52-1744-B28F-6E168B04899E}" name="William Hannon Jr" id="-1404494652" dateTime="2021-04-19T11:42:50"/>
   <userInfo guid="{1E3E9BA8-1B5A-3044-A730-F5D4537C6D24}" name="William Hannon Jr" id="-1404447978" dateTime="2021-09-01T16:19:23"/>
+  <userInfo guid="{BA9F6A5A-C856-C141-A363-40E3365320A6}" name="William Hannon Jr" id="-1404471921" dateTime="2025-02-26T09:17:38"/>
 </users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4498,9 +4851,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4533,26 +4886,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4585,26 +4921,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4782,10 +5101,10 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4876,7 +5195,7 @@
         <v>73</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" s="13" t="str">
         <f>HYPERLINK("https://www.vmware.com/content/dam/digitalmarketing/vmware/en/pdf/techpaper/vmw-tuning-latency-sensitive-workloads-white-paper.pdf", "https://www.vmware.com/content/dam/digitalmarketing/vmware/en/pdf/techpaper/vmw-tuning-latency-sensitive-workloads-white-paper.pdf")</f>
@@ -5121,7 +5440,7 @@
         <v>62</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>33</v>
@@ -5531,19 +5850,19 @@
   </sheetData>
   <autoFilter ref="B1:H45" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
+    <customSheetView guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}" showAutoFilter="1">
+      <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="B1:H45" xr:uid="{AD555822-8243-3248-8696-EFCE73E08992}"/>
+    </customSheetView>
     <customSheetView guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" showAutoFilter="1">
       <pane xSplit="4" ySplit="1" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="B1:H40" xr:uid="{0B316F08-FC1A-6F45-9C16-97F971AD0F93}"/>
-    </customSheetView>
-    <customSheetView guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}" showAutoFilter="1">
-      <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="B1:H45" xr:uid="{70F26253-AEA8-ED47-A9B9-D7445E4B6692}"/>
+      <autoFilter ref="B1:H40" xr:uid="{686D3442-B693-D34A-B6D8-8D20D3D19202}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5654,11 +5973,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" state="hidden">
+    <customSheetView guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}" state="hidden">
       <selection activeCell="D8" sqref="D8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}" state="hidden">
+    <customSheetView guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}" state="hidden">
       <selection activeCell="D8" sqref="D8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -5694,11 +6013,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}">
+    <customSheetView guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{340C4338-CA95-6642-AF8A-4D0D155F5409}">
+    <customSheetView guid="{428EE15C-FAD5-428C-9A93-0F1E50589A6D}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
